--- a/Mar-2023-Samples-updated.xlsx
+++ b/Mar-2023-Samples-updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashit.a/Documents/Alzheimer/Mar-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D336C51-E7B7-AE48-ABD6-ACE014328083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5120961-40F4-6F40-BEA1-B69D40BBBF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="283">
   <si>
     <t>Index</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Neuritic Plaque, Diffuse Plaque</t>
   </si>
   <si>
-    <t>[740, 814, 817, 818, 819, 820, 821, 822, 825, 826, 896, 899, 900, 901, 902, 903, 904, 905, 980, 981, 982, 983, 985],[129, 200, 201, 208, 209, 210, 211, 212, 275, 281, 282, 283, 290, 291, 295, 298, 356, 357, 359, 360, 361, 363, 364, 365, 372, 373, 376, 377, 378, 381, 438, 439, 442, 443, 446, 456, 458, 459, 460, 461, 462, 521, 522, 525, 528, 540, 541, 543, 544, 601, 602, 603, 606, 607, 608, 622, 623, 626, 627, 689]</t>
-  </si>
-  <si>
     <t>[379]</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>1898_V2-roi1_0_0_masked_intp.h5</t>
   </si>
   <si>
-    <t>[1020, 1021, 1022, 1023, 1084, 1085, 1086, 1087, 1088, 1089, 1142, 1143, 1144, 1146, 1147, 1209, 1210, 1211, 1212, 1268], [1154, 1155, 1156, 1157, 1158, 1159, 1195, 1196, 1197, 1201, 1276, 1277, 1278, 1283, 1284, 1319, 1325, 1326, 1327, 1400, 1401, 1402, 1403, 1404, 1408, 1442, 1446, 1447, 1448, 1449, 1450, 1451, 1524, 1525, 1527, 1528, 1529, 1530, 1532, 1567, 1568, 1569, 1570, 1572, 1573, 1575, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1693, 1694, 1695, 1696, 1697], [3263, 3264, 3265, 3266, 3267, 3305, 3306, 3307, 3308, 3387, 3388, 3389, 3390, 3428, 3429, 3430, 3431, 3432, 3511, 3513, 3514]</t>
-  </si>
-  <si>
     <t>[2854, 2972, 3221]</t>
   </si>
   <si>
@@ -245,21 +239,12 @@
     <t>1948_HIPPO-roi0_0_0_masked.h5</t>
   </si>
   <si>
-    <t>[ 94,  95, 151, 152, 153, 154, 216, 217, 218, 219, 220, 221, 275, 276, 277, 278, 279, 280, 338, 339, 340, 341, 342, 343, 344, 345, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 461, 462, 463,  464, 465, 466, 467, 468, 469, 470, 521, 522, 523, 524, 525, 526, 527, 528, 529, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 644, 645, 646, 647, 648, 649, 650, 651, 713, 714, 715, 716, 717, 718]</t>
-  </si>
-  <si>
     <t>1948_HIPPO-roi1_0_0_masked_intp.h5</t>
   </si>
   <si>
-    <t>[2930, 2931, 3048]</t>
-  </si>
-  <si>
     <t>1948_PHG-roi0_0_0_masked.h5</t>
   </si>
   <si>
-    <t>[5952, 5953, 6073, 6074, 6075, 6076, 6077, 6078, 6079, 6196, 6197, 6198, 6199, 6200, 6201, 6202, 6203, 6204, 6319, 6320, 6321, 6322, 6323, 6324, 6325, 6326, 6327, 6328, 6443, 6444, 6445, 6446, 6447, 6448, 6449, 6450, 6451, 6452, 6567, 6568, 6569, 6570, 6571, 6572, 6573, 6574, 6693, 6694, 6695, 6696, 6697, 6819, 6820], [6210, 6312, 6313, 6433, 6434, 6435, 6436, 6437, 6438, 6457, 6458, 6459, 6460, 6461, 6462, 6463, 6556, 6557, 6558, 6559, 6560, 6561, 6562, 6581, 6582, 6583, 6584, 6585, 6586, 6587, 6588, 6589, 6590, 6677, 6678, 6679, 6680, 6681, 6706, 6707, 6708, 6710, 6711, 6712, 6713, 6714, 6804, 6805, 6806, 6807, 6808, 6809, 6810, 6829, 6830, 6831, 6832, 6833, 6834, 6929, 6930, 6931, 6932, 6933, 6934, 6954, 6955, 6956, 6957, 6958, 7053, 7054, 7055, 7056, 7057], [7110, 7149, 7150, 7151, 7230, 7231, 7232, 7233, 7234, 7273, 7274, 7277, 7278, 7353, 7354, 7355, 7356, 7357, 7397, 7398, 7399, 7400, 7401, 7402, 7403, 7404, 7405, 7474, 7475, 7476, 7477, 7478, 7479, 7480, 7481, 7482, 7522, 7523, 7524, 7525, 7526, 7527, 7528, 7529, 7530, 7531], [3900, 3901, 3906, 3907, 3908, 3909, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4043, 4044, 4045, 4046, 4047, 4048, 4049, 4150, 4151, 4152, 4153, 4154, 4167, 4168, 4169, 4170, 4171, 4172, 4173, 4258, 4259, 4260, 4261, 4262, 4263, 4264, 4265, 4274, 4275, 4276, 4277, 4278, 4279, 4280, 4281, 4286, 4287, 4291, 4292, 4293, 4294, 4295, 4296, 4297, 4384, 4385, 4386, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4403, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4415, 4416, 4417, 4525, 4526, 4527, 4528, 4529, 4530, 4531, 4532, 4533, 4534, 4535, 4536, 4537, 4538, 4539, 4639, 4640, 4641, 4642, 4643, 4644, 4645, 4646, 4647, 4648, 4649]</t>
-  </si>
-  <si>
     <t>[2328, 2451, 2452]</t>
   </si>
   <si>
@@ -293,24 +278,15 @@
     <t>1971_Hippo-roi0_0_0_masked_intp.h5</t>
   </si>
   <si>
-    <t>[2576, 2577, 2578, 2579, 2580, 2665, 2666, 2667, 2668, 2669, 2698, 2699, 2700, 2701, 2702, 2788, 2789, 2790], [2595, 2650, 2651, 2652, 2715, 2716, 2717, 2771, 2772, 2773], [376, 476, 498, 499, 598, 599, 620, 621, 741, 742]</t>
-  </si>
-  <si>
     <t>[1004, 1069]</t>
   </si>
   <si>
-    <t>[781, 782, 802, 803, 804, 903, 904, 925], [907, 908, 921, 922], [1429, 1497, 1551, 1552, 1619, 1620]</t>
-  </si>
-  <si>
     <t>1971_Hippo-roi1_0_0_masked_intp.h5</t>
   </si>
   <si>
     <t>[2470, 2471, 2489]</t>
   </si>
   <si>
-    <t>[500, 615], [960, 1023], [984, 999, 1000]</t>
-  </si>
-  <si>
     <t>1971_PHG-roi0_0_0_masked.h5</t>
   </si>
   <si>
@@ -431,15 +407,6 @@
     <t>[688, 830]</t>
   </si>
   <si>
-    <t>[3233, 3234, 3235, 3236, 3350, 3351, 3352, 3353, 3354, 3355, 3356, 3357, 3358, 3359, 3360, 3470, 3471, 3472, 3473, 3474, 3476, 3477, 3478, 3479, 3480, 3481, 3482, 3483, 3592, 3593, 3594, 3595, 3596,  3597, 3598, 3599, 3600, 3601, 3602, 3603, 3604, 3715, 3716, 3717,  3718, 3719, 3720], [549, 550, 551, 668, 669, 670, 671, 672, 673, 790, 791, 792, 793, 794, 914], [ 808,  899,  900,  929,  930, 1020, 1021, 1022, 1049, 1050, 1051, 1052, 1142, 1143, 1144, 1145, 1146,  1171, 1172, 1173, 1174, 1266], [461, 514, 582, 583, 636, 637, 704, 758], [3030, 3031, 3068, 3069, 3152, 3153, 3191, 3274, 3275]</t>
-  </si>
-  <si>
-    <t>[  2,   3,   4, 123], [2886, 2887, 2941, 3065, 3134, 3135], [2429, 2530, 2531, 2552, 2553, 2654, 2655, 2656, 2676, 2677, 2778,  2779, 2800, 2801, 2802, 2902], [ 821,  913,  914,  944,  945,  946, 1035, 1036, 1037, 1038, 1039, 1159, 1160 , 1068, 1069, 1070, 1071, 1072, 1161, 1162, 1163, 1164,   1193, 1194, 1195], [1151, 1152, 1204, 1207, 1208, 1272, 1275, 1326, 1328, 1329, 1331,  1334, 1394, 1395, 1397, 1398, 1399, 1452, 1453, 1456, 1457, 1517, 1518, 1519, 1523, 1579, 1580, 1581, 1643]</t>
-  </si>
-  <si>
-    <t>[  3,   6,   7, 116, 130, 131, 240, 241, 251, 252, 253, 254, 255,  256, 257, 362, 363, 364, 365, 366, 367, 368, 376, 377, 378, 379, 488, 489, 502], [3478, 3589, 3590, 3601, 3602, 3713, 3714, 3725, 3726], [3584, 3585, 3605, 3606, 3607, 3708, 3709, 3710, 3730, 3731], [1498, 1499, 1500, 1501, 1502, 1596, 1597, 1598, 1599, 1600, 1601, 1622, 1623, 1624, 1625, 1626, 1627, 1720, 1721, 1722, 1723, 1724, 1725, 1746, 1747, 1748, 1749, 1750, 1845, 1846, 1847, 1848, 1849, 1870, 1871, 1872, 1873, 1874, 1969, 1970, 1971, 1972, 1973, 1994, 1995, 1996, 1997, 1998, 1999, 2092, 2093, 2094, 2095, 2096, 2097, 2118, 2119, 2120, 2121, 2122, 2123, 2216, 2217, 2218, 2219, 2220, 2221, 2243, 2244, 2245, 2246, 2247],[1787, 1804, 1805, 1806, 1807, 1808, 1908, 1909, 1910, 1911, 1912, 1913, 1914, 1915, 1916, 1926, 1927, 1928, 1929, 1930, 1931, 1932, 1933, 1934, 1935, 2032, 2033, 2034, 2035, 2036, 2037, 2038, 2039, 2040, 2041, 2042, 2049, 2050, 2051, 2052, 2053, 2054, 2055, 2056, 2057, 2058, 2154, 2155, 2156, 2157, 2158, 2159, 2160, 2161, 2162, 2163, 2164, 2165, 2166, 2167, 2168, 2171, 2172, 2173, 2174, 2175, 2176, 2177, 2178, 2179, 2180, 2181, 2182, 2183, 2184, 2185,  2278, 2279, 2280, 2281, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2291, 2292, 2296, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2306, 2307, 2308, 2309, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414 ,2418, 2419, 2420, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2539, 2540, 2541, 2542, 2543]</t>
-  </si>
-  <si>
     <t>{'1898_HIPPO_bkg-roi0_0_0_masked.h5': [33, 36]}</t>
   </si>
   <si>
@@ -458,9 +425,6 @@
     <t>[ 1637, 1638]</t>
   </si>
   <si>
-    <t>[3719, 3720, 3721]</t>
-  </si>
-  <si>
     <t>Not sure about overlay map</t>
   </si>
   <si>
@@ -470,45 +434,21 @@
     <t>Diffuse plaque look like Neuritic</t>
   </si>
   <si>
-    <t>[336, 394, 395 ,399, 454, 455, 457, 458, 459, 516, 517, 520, 521, 576,577, 581, 642, 643, 698, 699, 700, 701, 703, 760, 761, 762, 763, 764, 765, 820, 821, 822, 823, 824, 825, 882, 883, 884, 885, 886, 887], [1976, 2049, 2097, 2098], [2500, 2501, 2622, 2623, 2744]</t>
-  </si>
-  <si>
-    <t>{'1948_HIPPO-roi1_0_0_masked_intp.h5':[2930, 2931, 3048]}</t>
-  </si>
-  <si>
-    <t>[161, 168, 169, 192, 196, 197, 287, 288, 289, 290, 294, 295, 314, 315, 316, 317, 318, 319, 320, 405, 406, 407, 408, 409, 410, 411, 412, 441, 442, 443, 444, 445, 446, 447, 448, 526, 527, 528, 529, 530, 531, 532, 533, 564, 565, 566, 567, 568, 569, 570, 571]</t>
-  </si>
-  <si>
     <t>[237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249,250, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370,371, 372, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491,492, 493, 494]</t>
   </si>
   <si>
-    <t>[2052, 2053, 2054, 2055, 2056, 2057, 2158, 2159, 2160, 2161, 2162, 2163, 2176, 2177, 2178, 2179, 2180, 2181, 2282, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2290, 2297, 2298, 2299, 2300, 2301, 2302, 2303, 2304, 2305, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2413, 2414, 2421, 2422, 2423, 2424, 2425, 2426, 2427, 2428, 2429, 2430, 2529, 2530, 2531, 2532, 2533, 2534, 2535, 2536, 2537, 2538, 2545, 2546, 2547, 2548, 2549, 2550, 2551, 2552, 2553, 2554, 2653, 2654, 2655, 2656, 2657, 2658, 2659, 2672, 2673, 2674, 2675, 2676, 2677, 2778, 2779]</t>
-  </si>
-  <si>
     <t>{'1948_PHG-roi0_0_0_masked.h5':[2328, 2451, 2452]}</t>
   </si>
   <si>
     <t>[3299, 3409, 3410]</t>
   </si>
   <si>
-    <t>[1762, 1763, 1764, 1771, 1772, 1773, 1774, 1775, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 2002, 2003, 2004, 2005, 2006, 2007, 2009, 2010, 2011, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021, 2022, 2023, 2124, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2136, 2137, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2247, 2248, 2249, 2250, 2251, 2252, 2253, 2254, 2259, 2260, 2261, 2262, 2263, 2264], [2105, 2163, 2164, 2165, 2224, 2225, 2226, 2227, 2228, 2283, 2284, 2285, 2286, 2287, 2288, 2289, 2346, 2347, 2348, 2349, 2350, 2351, 2352, 2353, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2467, 2468, 2469, 2470, 2471, 2474, 2475, 2526, 2527, 2530, 2531, 2532, 2533, 2534, 2589, 2590, 2591, 2592, 2593, 2596, 2597, 2648, 2649, 2650, 2651, 2652, 2653, 2654, 2655, 2656, 2711, 2712, 2713, 2714, 2715, 2716, 2717, 2718, 2774, 2775]</t>
-  </si>
-  <si>
     <t>[3294, 3295]</t>
   </si>
   <si>
     <t>Tau, Neurofibrillary Tangle (tau), Neuritic Plaque, Diffuse Plaque</t>
   </si>
   <si>
-    <t>[3321, 3375, 3438, 3439, 3440, 3441, 3442, 3445, 3497, 3498, 3499,3500, 3501, 3502, 3503, 3504, 3505, 3561, 3564, 3565, 3566, 3567,3568, 3569, 3570, 3571, 3572, 3573, 3618, 3619, 3620, 3621, 3622,3623, 3624, 3625, 3626, 3627, 3628, 3629, 3630, 3685, 3686, 3687,3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3742,3743, 3744, 3745, 3746, 3747, 3748, 3749, 3750, 3751, 3752, 3753,3754]</t>
-  </si>
-  <si>
-    <t>[2849, 2850, 2851, 2880, 2881, 2882, 2883, 2884, 2971, 2972, 2973, 2974, 2975, 2976, 2997, 3000, 3001, 3002, 3003, 3004, 3005, 3006, 3094, 3095, 3096, 3097, 3098, 3099, 3100, 3101, 3102, 3103, 3119, 3120, 3121, 3122, 3123, 3124, 3125, 3126, 3218, 3219, 3220, 3221, 3222, 3223, 3244, 3245], [1171, 1172, 1173, 1265, 1266, 1267, 1268, 1292, 1293, 1294, 1295, 1296, 1297, 1386, 1387, 1388, 1389, 1390, 1391, 1415, 1416, 1417, 1418, 1419, 1508, 1509, 1510, 1511, 1512, 1536, 1537, 1538, 1539], [2794, 2795, 2796, 2797, 2798, 2813, 2814, 2815, 2816, 2817, 2916, 2917, 2918, 2919, 2920, 2921, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 2940, 3038, 3039, 3040, 3041, 3042, 3043, 3044, 3045,3054, 3055, 3057, 3058, 3059, 3060, 3061, 3160, 3161, 3162, 3163, 3164, 3166, 3177, 3178, 3179, 3180, 3181], [1351, 1454, 1455, 1469, 1470, 1471, 1472, 1473, 1576, 1577, 1578, 1579, 1580, 1581, 1590, 1591, 1592, 1593, 1594, 1595, 1698, 1699, 1700, 1701, 1702, 1703, 1712, 1713, 1714, 1715, 1716, 1717, 1820, 1821, 1822, 1823, 1824, 1825, 1834, 1835, 1836, 1837, 1838]</t>
-  </si>
-  <si>
-    <t>[1014, 1060]</t>
-  </si>
-  <si>
     <t>[1705, 1706, 1707, 1708, 1709, 1761, 1762, 1764, 1765, 1766, 1767,  1829, 1830, 1833, 1834, 1885, 1886, 1887, 1890, 1891, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 2010, 2011, 2012, 2013, 2014, 2015,  2076, 2077, 2078, 2079, 2080, 2081, 2133, 2134, 2135, 2136, 2137,  2138, 2201, 2202, 2203, 2204, 2205, 2258, 2259, 2260, 2261, 2262], [ 334,  407,  408,  409,  410,  411,  455,  456,  457,  458,  459, 460,  461,  530,  531,  532,  533,  534,  535,  536,  579,  580, 581,  582,  583,  584,  585,  658,  659,  660,  703,  704,  705, 781,  782,  783,  784,  785,  786,  787,  788,  789,  822,  823, 824,  825,  826,  827,  828,  829,  830,  831,  832,  833,  834, 901,  902,  903,  904,  905,  906,  907,  908,  909,  910,  911, 912,  913,  914,  946,  947,  948,  949,  950,  951,  952,  953, 954, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1071, 1072,1073, 1074, 1075, 1076, 1077, 1078, 1149, 1152, 1153, 1154, 1155,1156, 1157, 1158, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204,1205, 1206, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1324,1325, 1326, 1327, 1328]</t>
   </si>
   <si>
@@ -564,9 +504,6 @@
   </si>
   <si>
     <t>{'1968_Hippo_CA3-roi0_0_0_masked.h5':[34, 505, 507]}</t>
-  </si>
-  <si>
-    <t>[42, 126]</t>
   </si>
   <si>
     <t>Tau_Dentate_Cells</t>
@@ -688,16 +625,19 @@
     <t>[ 2566]</t>
   </si>
   <si>
-    <r>
-      <t>[</t>
+    <t>[2179]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[ </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>922, 938</t>
+      <t>18</t>
     </r>
     <r>
       <rPr>
@@ -707,23 +647,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> [1689, 1690, 1782], [2457, 2458, 2502, 2581]</t>
-    </r>
-  </si>
-  <si>
-    <t>[2179]</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -731,7 +655,253 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>1394</t>
+      <t>137]</t>
+    </r>
+  </si>
+  <si>
+    <t>[314]</t>
+  </si>
+  <si>
+    <t>[2144, 2128, 2125]</t>
+  </si>
+  <si>
+    <t>[169, 170, 172, 173, 174, 175, 176, 177, 178, 179, 193, 194, 195, 197, 198, 199, 200, 201, 202, 293, 294, 295, 296, 297, 298, 300, 301, 302, 303, 316, 318, 319, 320, 321, 322, 323, 324, 325, 326, 417, 419, 420, 421, 422, 425, 426, 427, 440, 441, 442, 443, 444, 446, 447, 448, 449, 450, 542, 543, 545, 546, 548, 549, 550, 551]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2479</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ 3111, 3212]</t>
+  </si>
+  <si>
+    <t>[676, 677, 680, 683, 684, 688, 810, 924, 927, 937, 938, 1047, 1050, 1060, 1169, 1173, 1176]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1594</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1598</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1439</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1430</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1276</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[2547, 2548, 2534, 2535, 2536, 2537, 2423, 2425, 2426, 2410, 2411, 2413, 2299, 2300, 2302, 2284, 2286, 2287, 2288,2289, 2175, 2176, 2178, 2160, 2162,2164, 2165, 2051, 2052, 2053, 2054, 2037, 2038,2039, 2041, 1927, 1928, 1929, 1930]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>825, 881, 882,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>883,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2297, 2338, 2419]</t>
+    </r>
+  </si>
+  <si>
+    <t>[2014, 2015, 2017, 2019, 2020, 2023, 2001, 2002, 2003, 2007, 2008, 2009, 1892, 1893, 1894, 1896, 1899, 1900]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3692</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[648, 651, 654, 657, 686, 688, 690, 693, 771, 775, 776, 779, 809, 811, 813, 814, 1037, 1039, 1041, 1043, 1152, 1153, 1154, 1156, 1157, 1161, 1163, 1276, 1277, 1278]</t>
+  </si>
+  <si>
+    <t>[2035, 2037, 2042, 2046, 2049, 2051, 2052, 2059, 2061, 2064]</t>
+  </si>
+  <si>
+    <t>[525, 527, 531, 532, 533, 534, 536, 537, 538, 539, 541, 543, 548, 549, 552, 557, 561, 563, 564, 566, 568, 645, 649, 650, 651, 653, 656, 658, 659, 660, 663, 664, 665, 666, 667, 668, 670, 671, 677, 681, 687, 688, 693, 694]</t>
+  </si>
+  <si>
+    <t>[2029, 2030, 2033, 2035, 2044, 2104, 2105, 2110, 2115, 2116, 2156, 2159, 2163, 2166, 2225, 2226, 2227, 2229, 2230, 2234]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1406</t>
     </r>
     <r>
       <rPr>
@@ -749,7 +919,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>1395</t>
+      <t>1521</t>
     </r>
     <r>
       <rPr>
@@ -759,12 +929,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 1473, 1478]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[ </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -772,47 +937,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>137]</t>
-    </r>
-  </si>
-  <si>
-    <t>[314]</t>
-  </si>
-  <si>
-    <t>[2144, 2128, 2125]</t>
-  </si>
-  <si>
-    <t>[169, 170, 172, 173, 174, 175, 176, 177, 178, 179, 193, 194, 195, 197, 198, 199, 200, 201, 202, 293, 294, 295, 296, 297, 298, 300, 301, 302, 303, 316, 318, 319, 320, 321, 322, 323, 324, 325, 326, 417, 419, 420, 421, 422, 425, 426, 427, 440, 441, 442, 443, 444, 446, 447, 448, 449, 450, 542, 543, 545, 546, 548, 549, 550, 551]</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2479</t>
+      <t>2727</t>
     </r>
     <r>
       <rPr>
@@ -826,13 +951,10 @@
     </r>
   </si>
   <si>
-    <t>[ 3111, 3212]</t>
-  </si>
-  <si>
-    <t>[676, 677, 680, 683, 684, 688, 810, 924, 927, 937, 938, 1047, 1050, 1060, 1169, 1173, 1176]</t>
-  </si>
-  <si>
-    <t>Neurofibrillary_Tangle_(tau)-2</t>
+    <t>[2123, 2125, 2128, 2133, 2138, 2201, 2202, 2206, 2207, 2210, 2213, 2216, 2247, 2249, 2250, 2257, 2258, 2325, 2326, 2328, 2329, 2330, 2331, 2332, 2333, 2335, 2337, 2339, 2340, 2372, 2374, 2378, 2379, 2380, 2381, 2384, 2386]</t>
+  </si>
+  <si>
+    <t>[1311, 1312]</t>
   </si>
   <si>
     <r>
@@ -844,308 +966,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>1593</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1594</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1598</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1439</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1430</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1276</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>[2547, 2548, 2534, 2535, 2536, 2537, 2423, 2425, 2426, 2410, 2411, 2413, 2299, 2300, 2302, 2284, 2286, 2287, 2288,2289, 2175, 2176, 2178, 2160, 2162,2164, 2165, 2051, 2052, 2053, 2054, 2037, 2038,2039, 2041, 1927, 1928, 1929, 1930]</t>
-  </si>
-  <si>
-    <t>[1887, 1890, 1891, 1895, 1824, 1826, 1827, 1828, 1829, 1763, 1765, 1766, 1768, 1769, 1772, 1700, 1705, 1638, 1639, 1643, 1645, 1648, 1583, 1584, 1519, 1521, 1523, 1452, 1453, 1454, 1456, 1457, 1458, 1459]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>825, 881, 882,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>883,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2297, 2338, 2419]</t>
-    </r>
-  </si>
-  <si>
-    <t>[2014, 2015, 2017, 2019, 2020, 2023, 2001, 2002, 2003, 2007, 2008, 2009, 1892, 1893, 1894, 1896, 1899, 1900]</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3692</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>[648, 651, 654, 657, 686, 688, 690, 693, 771, 775, 776, 779, 809, 811, 813, 814, 1037, 1039, 1041, 1043, 1152, 1153, 1154, 1156, 1157, 1161, 1163, 1276, 1277, 1278]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[6646, 6647, 6744, 6745, 6746, 6769, 6770]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[5521, 5522, 5523, 5636, 5637, 5638]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>4893, 4894, 4895, 4896,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>4897</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> [4908, 4909, 5010, 5011, 5032], [4973, 5069, 5100, 5101, 5190]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2347]</t>
-    </r>
-  </si>
-  <si>
-    <t>[2035, 2037, 2042, 2046, 2049, 2051, 2052, 2059, 2061, 2064]</t>
-  </si>
-  <si>
-    <t>[525, 527, 531, 532, 533, 534, 536, 537, 538, 539, 541, 543, 548, 549, 552, 557, 561, 563, 564, 566, 568, 645, 649, 650, 651, 653, 656, 658, 659, 660, 663, 664, 665, 666, 667, 668, 670, 671, 677, 681, 687, 688, 693, 694]</t>
-  </si>
-  <si>
-    <t>[2029, 2030, 2033, 2035, 2044, 2104, 2105, 2110, 2115, 2116, 2156, 2159, 2163, 2166, 2225, 2226, 2227, 2229, 2230, 2234]</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1406</t>
+      <t>1394</t>
     </r>
     <r>
       <rPr>
@@ -1163,7 +984,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>1521</t>
+      <t>1395</t>
     </r>
     <r>
       <rPr>
@@ -1173,7 +994,55 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>, 1478]</t>
+    </r>
+  </si>
+  <si>
+    <t>[740, 819, 821, 899, 903, 904, 905, 980],[129, 201, 211, 275, 283, 295, 359, 360, 361, 364, 377, 443, 521, 528, 626, 689]</t>
+  </si>
+  <si>
+    <t>[2398, 2400, 2402, 2404, 2405]</t>
+  </si>
+  <si>
+    <t>[768, 818, 890, 965, 988, 1973, 2051]</t>
+  </si>
+  <si>
+    <t>[3236, 3351, 3353, 3471, 3476, 3477, 3478, 3482, 3594, 3595, 3597, 3601, 3602, 3603, 3716, 3717,  3718], [3031, 3191]</t>
+  </si>
+  <si>
+    <t>[3825, 3826]</t>
+  </si>
+  <si>
+    <t>[2501, 2502, 2503, 2504, 2505, 2506]</t>
+  </si>
+  <si>
+    <t>[ 2887, 2941, 2654, 2655, 2676, 2677, 2800, 2801, 2802], [ 913,  914, 945, 1036, 1068, 1069, 1070, 1164], [1272, 1328, 1329, 1394, 1397, 1453, 1519, 1523]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3585, 3607], [1499,1724,2092,2246], [1787, 1913, 1916, 2038, 2039, 2042, 2051]</t>
+  </si>
+  <si>
+    <t>[3378, 3379, 3380, 3381, 3382, 3383, 3384, 3385, 3310, 3311, 3312, 3313, 3314, 3315, 3316, 3317]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2458, 2502]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ 6073, 6074, 6075, 6076, 6077, 6078, 6079, 6197, 6198, 6199, 6200, 6201, 6202, 6203, 6204, 6320, 6321, 6322, 6323, 6324, 6325, 6326, 6327, 6443, 6444, 6445, 6446, 6447, 6448, 6449, 6450, 6567, 6568, 6570, 6571, 6572, 6573, 6574, 6693, 6694, 6696, 6697, 6819, 6820], [6210, 6312, 6313, 6433, 6434, 6435, 6436, 6437, 6438, 6457, 6458, 6459, 6460, 6461, 6463, 6556, 6557, 6558, 6559, 6560, 6561, 6562, 6581, 6582, 6583, 6584, 6585, 6586, 6587, 6588, 6589, 6590, 6677, 6678, 6679, 6680, 6681, 6706, 6707, 6710, 6711, 6712, 6713, 6714, 6804, 6805, 6806, 6807, 6808, 6809, 6810, 6829, 6830, 6831, 6832, 6833, 6834, 6929, 6931, 6932, 6933, 6934, 6954, 6956, 6958, 7056], [7110, 7149, 7150, 7151, 7230, 7231, 7232, 7233, 7234, 7273, 7274, 7277, 7278, 7354, 7355, 7356, 7357, 7397, 7398, 7399, 7400, 7401, 7402, 7403, 7404, 7405, 7474, 7475, 7476, 7478, 7479, 7480, 7481, 7482, 7523, 7524, 7525, 7526, 7527, 7528, 7529], [3900, 3901, 3907, 3908, 3910, 3911, 3912, 3913, 3914, 3915, 3916, 3917, 3918, 4018, 4019, 4020, 4021, 4022, 4023, 4024, 4025, 4026, 4027, 4028, 4029, 4030, 4031, 4032, 4033, 4034, 4035, 4036, 4037, 4038, 4039, 4040, 4041, 4042, 4045, 4047, 4048, 4049, 4150, 4151, 4152, 4153, 4154, 4167, 4169, 4171, 4172, 4173, 4258, 4259, 4260, 4261, 4263, 4265, 4274, 4276, 4277, 4278, 4279, 4280, 4286, 4287, 4291, 4292, 4293, 4295, 4384, 4385, 4387, 4388, 4389, 4390, 4391, 4392, 4393, 4394, 4395, 4396, 4397, 4398, 4399, 4400, 4401, 4402, 4404, 4405, 4406, 4407, 4408, 4409, 4410, 4411, 4412, 4413, 4414, 4526, 4527, 4529, 4530, 4531, 4532, 4533, 4534, 4536, 4537, 4539, 4639, 4640, 4641, 4642, 4643, 4644, 4647]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -1181,31 +1050,241 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>2727</t>
+      <t>2347]</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>[2123, 2125, 2128, 2133, 2138, 2201, 2202, 2206, 2207, 2210, 2213, 2216, 2247, 2249, 2250, 2257, 2258, 2325, 2326, 2328, 2329, 2330, 2331, 2332, 2333, 2335, 2337, 2339, 2340, 2372, 2374, 2378, 2379, 2380, 2381, 2384, 2386]</t>
-  </si>
-  <si>
-    <t>[1311, 1312]</t>
+      <t>, [6646, 6647, 6744, 6745, 6769, 6770], [5522, 5636, 5637, 5638], [4893, 4894, 4895, 4896, 4897], [4908, 4909, 5010, 5011, 5032], [4973, 5069, 5100, 5101, 5190]</t>
+    </r>
+  </si>
+  <si>
+    <t>[2052, 2053, 2054, 2055, 2159, 2160, 2181, 2282, 2300, 2303, 2407, 2411, 2412, 2426, 2428, 2536, 2537, 2546, 2550, 2658, 2672, 2674]</t>
+  </si>
+  <si>
+    <t>[94, 153, 154, 217, 278, 279, 341, 342, 400, 401, 466, 467, 468, 523, 524, 589, 591, 646, 648, 718]</t>
+  </si>
+  <si>
+    <t>[289, 320]</t>
+  </si>
+  <si>
+    <t>[395, 459, 576, 820]</t>
+  </si>
+  <si>
+    <t>[1762, 1763, 1764, 1771, 1772, 1773, 1774, 1775, 1881, 1882, 1883, 1884, 1885, 1886, 1887, 1888, 1892, 1893, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 2002, 2003, 2004, 2005, 2006, 2007, 2009, 2010, 2014, 2015, 2017, 2018, 2019, 2021, 2022, 2125, 2126, 2127, 2128, 2129, 2130, 2131, 2132, 2133, 2138, 2139, 2140, 2141, 2142, 2143, 2144, 2145, 2254, 2263, 2264], [2163, 2164, 2165, 2224, 2283, 2286, 2287, 2289, 2346, 2347, 2348, 2349, 2353, 2404, 2405, 2406, 2407, 2408, 2409, 2410, 2411, 2412, 2467, 2468, 2469, 2470, 2471, 2474, 2475, 2530, 2531, 2532, 2533, 2534, 2589, 2590, 2597, 2648, 2651, 2653, 2654, 2655, 2656, 2711, 2718]</t>
+  </si>
+  <si>
+    <t>[2850, 2851, 2880, 2881, 2882, 2976, 2997, 3000, 3001, 3002, 3005, 3095, 3099, 3100, 3101, 3102, 3103, 3119,  3121, 3122, 3123, 3124, 3125, 3126, 3218, 3220, 3221, 3222], [ 1172,  1265,  1293, 1294, 1295,  1297, 1386, 1387, 1388, 1416, 1417, 1418, 1419,  1509, 1510, 1511, 1512, 1537 ], [2797, 2814, 2815, 2916, 2919, 2920, 2921, 2933, 2934, 2935, 2936, 2937, 2938, 2939, 3038, 3039, 3040, 3041, 3042, 3044, 3045,  3057, 3058, 3059, 3060,  3160, 3161, 3162, 3163, 3164, 3166, 3178, 3179], [1455, 1469, 1470, 1471, 1473, 1577, 1578, 1579, 1590, 1591, 1594, 1699, 1701, 1712, 1714, 1715,  1717, 1820, 1821, 1822, 1823, 1825, 1834]</t>
+  </si>
+  <si>
+    <t>[3031, 3032, 3067], [2370]</t>
+  </si>
+  <si>
+    <t>[2576, 2577, 2578, 2579, 2580, 2666, 2667, 2668, 2669, 2698, 2699, 2700, 2701, 2702, 2789, 2790], [2595, 2651, 2652, 2715, 2716, 2773], [376, 476, 498, 499, 599, 620, 742]</t>
+  </si>
+  <si>
+    <t>[2565, 2680]</t>
+  </si>
+  <si>
+    <t>[ 860,  969,  982, 1091, 1104, 1212, 1213, 1226], [1506]</t>
+  </si>
+  <si>
+    <t>[782, 802, 804, 903], [908], [1497, 1551]</t>
+  </si>
+  <si>
+    <t>[3439, 3441, 3498, 3500, 3502, 3503, 3504, 3505, 3565, 3566, 3567, 3569, 3570, 3619, 3620, 3622, 3625, 3626, 3691, 3694, 3695, 3697, 3742, 3743, 3745, 3746, 3749, 3751]</t>
+  </si>
+  <si>
+    <t>[984]</t>
+  </si>
+  <si>
+    <t>[3080, 3120, 3204, 3242, 3229, 3340, 3342, 3355, 3464, 3475, 3480, 3588, 3602, 363, 3708, 3716, 3723, 3727]</t>
+  </si>
+  <si>
+    <t>{'1948_HIPPO-roi1_0_0_masked_intp.h5':[2930, 2931]}</t>
+  </si>
+  <si>
+    <t>{'1971_Hippo-roi1_0_0_masked_intp.h5':[2470, 2471, 2489]}</t>
+  </si>
+  <si>
+    <t>bkg_model</t>
+  </si>
+  <si>
+    <t>[56,57,58,59,60,61,62,63,87,95,293,294,362,363,374,375,378,379,380,524,525,541,908,909,1002,1003,1045,1046,1047,1087,1126,1170,1171,1368]</t>
+  </si>
+  <si>
+    <t>[347,348,349,2203,2204,2260,2327,2328,2383,2384,2385,2451,2452,2453,2506,2507,2577,2634,2635,2636,2637,2695,2696,2697,2698,2756,2757,2758,2823,2824,2825,2826,2827,2828,2829,2830,2873,2874,2875,2876,2877,2878,2879,2880,2881,2954,2955,2956,2957,4272,4273,4803,4804,4805,4806,4867,4868,4869,4870,4871,4924,4925,4926]</t>
+  </si>
+  <si>
+    <t>[919,920,921,1032,1033,2073,2074,2075,2190,2191,2192,2193,2194,2195,2196,2197,2198,2199,2200,2201,2202,2203,2204,2308,2309,2310,2311,2312,2313,2314,2315,2316,2317,2318,2319,2320,2321,2322,2323,2324,2325,2326,2327,2328,2428,2429,2430,2431,2432,2433,2434,2435,2436,2437,2438,2439,2440,2441,2442,2443,2444,2445,2446,2447,2448,2449,2450,2451,2452,2548,2549,2550,2551,2552,2553,2554,2555,2556,2557,2558,2559,2560,2561,2562,2563,2564,2565,2566,2567,2568,2569,2570,2571,2572,2573,2574,2575,2576,2670,2671,2672,2673,2674,2675,2676,2677,2678,2679,2680,2681,2682,2683,2684,2685,2686,2687,2688,2689,2690,2691,2692,2693,2694,2695,2696,2697,2795,2796,2797,2798,2799,2800,2801,2802,2803,2804,2805,2806,2807,2808,2809,2810,2811,2812,2813,2814,2815,2816,2918,2919,2920,2921,2922,2923,2924,2925,2926,2927,2928,2929,2930,2931,2932,2933,2934,2935,2936,2937,2938,3040,3041,3042,3043,3044,3045,3046,3047,3048,3049,3050,3051,3052,3053,3054,3055,3056,3057,3058,3059,3060,3061,3062,3063,3158,3159,3160,3161,3162,3163,3164,3165,3166,3167,3168,3169,3170,3171,3172,3173,3174,3175,3176,3177,3178,3179,3180,3181,3182,3183,3184,3185,3186,3276,3277,3278,3279,3280,3281,3282,3283,3284,3285,3286,3287,3288,3289,3290,3291,3292,3293,3294,3295,3296,3297,3298,3299,3300,3301,3302,3303,3304,3305,3306,3307,3308,3309,3310,3311,3312,3352,3397,3398,3399,3400,3401,3402,3403,3404,3405,3406,3407,3408,3409,3410,3411,3412,3413,3414,3415,3416,3417,3418,3419,3420,3421,3422,3423,3424,3425,3426,3427,3428,3429,3430,3431,3432,3433,3519,3520,3521,3522,3523,3524,3525,3526,3527,3528,3529,3530,3531,3532,3533,3534,3535,3536,3537,3538,3539,3540,3541,3542,3543,3544,3545,3546,3547,3548,3549,3550,3551,3552,3553,3554,3555,3556,3630,3641,3642,3643,3644,3645,3646,3647,3648,3649,3650,3651,3652,3653,3654,3655,3656,3657,3658,3659,3660,3661,3662,3663,3664,3665,3666,3667,3668,3669,3670,3671,3672,3673,3674,3675,3676,3677,3678,3687]</t>
+  </si>
+  <si>
+    <t>[32,33,39,40,41,42,44,45,47,48,49,50,51,52,53,54,55,56,57,58,59,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,80,81,82,100,101,102,143,160,161,162,163,164,165,166,167,168,169,173,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190,191,192,193,196,197,198,199,200,201,202,203,204,208,209,210,211,275,276,277,278,279,280,281,287,288,289,290,291,292,293,294,295,296,297,298,299,300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,327,328,329,330,331,332,333,347,397,398,399,400,401,402,403,409,410,411,412,413,417,418,419,420,421,422,423,424,425,426,427,428,429,431,432,433,434,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,515,516,517,519,520,521,522,523,524,525,526,530,531,532,533,547,565,566,567,572,573,574,576,577,578,579,652,669,670,671,672,691,692,696,701,702,703,704,716,717,759,760,761,762,766,767,768,771,786,791,792,793,794,795,796,797,817,818,819,820,821,822,823,824,871,872,873,874,886,887,888,901,902,903,904,907,908,909,910,911,912,915,916,917,918,919,920,921,926,927,928,929,930,944,945,954,955,1006,1007,1008,1023,1024,1025,1027,1028,1029,1030,1031,1032,1033,1034,1035,1041,1042,1043,1044,1045,1046,1047,1048,1049,1050,1051,1055,1068,1085,1086,1087,1109,1110,1111,1112,1116,1118,1119,1121,1122,1123,1124,1140,1144,1145,1146,1147,1148,1149,1150,1151,1153,1154,1155,1156,1162,1163,1164,1165,1166,1167,1168,1170,1171,1172,1173,1174,1175,1176,1177,1194,1195,1196,1197,1198,1199,1200,1206,1234,1239,1240,1241,1242,1243,1244,1245,1261,1262,1263,1264,1265,1266,1267,1268,1269,1270,1271,1272,1273,1274,1275,1276,1277,1278,1284,1285,1286,1287,1288,1289,1290,1291,1292,1293,1294,1295,1296,1297,1300,1301,1302,1318,1319,1320,1321,1322,1323,1328,1329,1330,1331,1335,1353,1354,1355,1356,1361,1362,1363,1380,1387,1388,1389,1390,1391,1392,1393,1394,1395,1396,1397,1406,1407,1408,1409,1410,1411,1412,1413,1414,1415,1416,1417,1421,1431,1432,1433,1449,1495,1496,1497,1498,1499,1500,1501,1506,1507,1508,1515,1516,1517,1518,1519,1520,1521,1528,1529,1530,1540,1541,1542,1543,1546,1547,1548,1549,1550,1551,1552,1571,1582,1583,1597,1598,1599,1601,1602,1619,1620,1621,1622,1623,1624,1625,1626,1627,1629,1630,1631,1636,1639,1640,1641,1642,1643,1651,1652,1653,1654,1657,1658,1665,1667,1668,1669,1670,1671,1677,1692,1711,1712,1739,1746,1750,1751,1755,1757,1758,1759,1760,1766,1769,1772,1773,1776,1780,1782,1783,1784,1785,1786,1787,1788,1798,1802,1806,1820,1824,1825,1826,1833,1834,1835,1836,1853,1854,1855,1858,1859,1860,1865,1866,1867,1868,1871,1872,1873,1874,1875,1876,1877,1879,1880,1899,1900,1901,1902,1904,1905,1906,1907,1908,1909,1910,1914,1915,1916,1917,1946,1970,1987,1988,1989,1990,1991,1993,1994,1995,1996,1997,1998,1999,2000,2001,2002,2017,2018,2020,2021,2022,2024,2025,2026,2027,2028,2029,2030,2031,2032,2033,2034,2035,2036,2037,2038,2039,2054,2055,2100,2105,2106,2107,2108,2109,2110,2111,2112,2113,2114,2115,2116,2117,2118,2119,2120,2124,2125,2126,2129,2130,2148,2149,2150,2151,2152,2153,2154,2155,2156,2157,2158,2159,2160,2161,2162,2163,2164,2165,2166,2177,2218,2219,2225,2226,2227,2228,2229,2230,2231,2232,2233,2234,2235,2236,2237,2238,2239,2240,2241,2242,2243,2244,2260,2263,2264,2270,2272,2273,2274,2275,2279,2280,2281,2282,2283,2285,2286,2287,2293,2294,2295,2328,2341,2342,2343,2344,2349,2350,2351,2352,2353,2354,2355,2356,2357,2358,2359,2360,2361,2362,2363,2364,2366,2367,2369,2371,2379,2380,2388,2389,2394,2395,2396,2397,2399,2400,2401,2402,2403,2404,2405,2406,2407,2408,2409,2414,2415,2416,2417,2421,2429,2430,2431,2432,2433,2450,2456,2457,2458,2459,2460,2463,2464,2465,2466,2467,2471,2472,2473,2474,2475,2476,2477,2478,2482,2483,2484,2485,2486,2487,2488,2489,2491,2493,2494,2499,2500,2501,2502,2511,2512,2513,2514,2515,2517,2518,2519,2520,2521,2522,2523,2524,2525,2526,2527,2528,2529,2530,2531,2534,2535,2536,2537,2538,2539,2540,2541,2542,2543,2551,2570,2571,2572,2584,2585,2586,2587,2588,2589,2590,2591,2592,2593,2594,2595,2596,2597,2598,2599,2600,2601,2602,2603,2604,2609,2610,2611,2612,2614,2615,2621,2622,2623,2624,2625,2630,2631,2634,2635,2636,2637,2638,2639,2640,2641,2642,2643,2644,2645,2646,2647,2648,2649,2650,2651,2652,2653,2654,2655,2656,2657,2658,2659,2660,2661,2662,2663,2664,2665,2667,2668,2669,2681,2682,2683,2684,2685,2686,2693,2694,2698,2699,2703,2704,2705,2706,2707,2708,2709,2710,2711,2712,2713,2714,2715,2716,2717,2718,2719,2720,2721,2722,2723,2724,2725,2726,2727,2728,2729,2730,2731,2732,2743,2744,2745,2746,2753,2754,2755,2756,2757,2758,2759,2760,2761,2762,2764,2765,2766,2767,2768,2769,2770,2771,2772,2773,2774,2775,2776,2777,2778,2779,2780,2781,2782,2783,2784,2787,2788,2789,2790,2791,2792,2795,2799,2804,2805,2806,2807,2811,2812,2817,2818,2819,2820,2821,2822,2823,2824,2828,2829,2830,2831,2832,2833,2834,2835,2836,2837,2838,2839,2840,2841,2842,2843,2844,2845,2846,2847,2848,2849,2850,2851,2852,2853,2854,2855,2856,2865,2866,2867,2868,2869,2878,2879,2880,2881,2882,2883,2884,2885,2887,2888,2889,2890,2891,2892,2893,2894,2895,2896,2897,2898,2899,2900,2901,2902,2903,2904,2905,2910,2911,2912,2913,2914,2915,2916,2917,2918,2919,2920,2921,2922,2923,2924,2931,2932,2933,2934,2935,2936,2937,2938,2939,2940,2941,2942,2943,2944,2945,2950,2951,2952,2953,2954,2955,2956,2957,2958,2959,2960,2961,2962,2963,2964,2965,2966,2967,2968,2969,2970,2971,2972,2973,2974,2975,2976,2977,2987,2988,2989,2999,3000,3003,3004,3005,3006,3008,3009,3010,3011,3012,3013,3014,3015,3016,3017,3018,3019,3020,3021,3022,3023,3024,3025,3026,3028,3029,3034,3036,3037,3038,3039,3040,3041,3042,3043,3044,3045,3046,3047,3050,3051,3052,3053,3054,3055,3056,3057,3058,3059,3060,3061,3062,3063,3064,3065,3066,3067,3068,3069,3070,3071,3072,3073,3074,3075,3076,3077,3078,3079,3080,3081,3082,3083,3084,3085,3086,3087,3088,3089,3090,3091,3092,3093,3094,3097,3098,3099,3100,3107,3109,3110,3111,3112,3113,3114,3115,3116,3120,3121,3122,3123,3124,3125,3126,3127,3128,3129,3130,3131,3132,3133,3134,3135,3136,3137,3138,3139,3140,3141,3142,3143,3144,3145,3146,3147,3148,3149,3150,3151,3152,3153,3154,3155,3156,3157,3158,3159,3160,3161,3162,3163,3164,3166,3167,3168,3169,3170,3171,3172,3173,3174,3175,3176,3177,3178,3179,3180,3181,3182,3183,3184,3185,3186,3187,3188,3189,3190,3191,3192,3193,3194,3195,3196,3197,3198,3199,3200,3201,3202,3203,3204,3205,3206,3207,3208,3209,3210,3211,3212,3213,3214,3215,3216,3217,3218,3219,3220,3221,3222,3226,3227,3228,3229,3230,3231,3232,3233,3234,3235,3236,3237,3238,3239,3243,3244,3245,3246,3247,3248,3249,3250,3251,3252,3253,3254,3255,3256,3257,3258,3259,3260,3262,3263,3264,3265,3266,3267,3268,3269,3270,3271,3272,3273,3274,3275,3276,3277,3278,3279,3280,3281,3282,3283,3284,3285,3286,3287,3288,3289,3290,3291,3292,3293,3295,3296,3297,3298,3299,3300,3301,3302,3303,3304,3305,3306,3307,3308,3309,3310,3311,3312,3313,3314,3315,3316,3317,3318,3319,3320,3321,3322,3323,3324,3325,3326,3327,3328,3329,3330,3331,3332,3333,3334,3335,3336,3337,3338,3339,3340,3341,3342,3343,3344,3348,3349,3350,3351,3352,3353,3354,3355,3356,3357,3358,3359,3360,3361,3363,3364,3366,3367,3368,3369,3370,3371,3372,3373,3376,3377,3378,3379,3380,3381,3382,3383,3384,3385,3388,3389,3390,3391,3392,3393,3394,3395,3396,3397,3398,3399,3400,3401,3402,3403,3404,3405,3406,3407,3408,3409,3410,3411,3412,3413,3419,3420,3421,3422,3423,3424,3425,3426,3427,3428,3429,3430,3431,3432,3433,3434,3435,3436,3437,3440,3441,3442,3443,3444,3445,3446,3447,3448,3449,3450,3451,3452,3453,3454,3455,3459,3460,3461,3462,3463,3464,3470,3471,3472,3473,3474,3475,3476,3477,3478,3479,3480,3481,3482,3483,3484,3488,3489,3490,3491,3492,3493,3494,3495,3499,3500,3501,3502,3503,3504,3505,3506,3507,3508,3509,3510,3511,3512,3513,3514,3515,3516,3517,3518,3519,3520,3521,3522,3523,3524,3526,3527,3528,3529,3530,3531,3536,3537,3538,3539,3540,3543,3544,3545,3546,3547,3548,3549,3550,3551,3552,3553,3554,3555,3556,3558,3559,3560,3561,3562,3563,3564,3565,3566,3567,3568,3569,3570,3571,3572,3573,3574,3575,3576,3577,3578,3579,3580,3581,3582,3583,3584,3585,3586,3587,3588,3591,3592,3593,3594,3595,3596,3597,3598,3599,3600,3601,3602,3603,3604,3605,3606,3612,3613,3614,3615,3616,3617,3618,3619,3620,3621,3622,3623,3624,3625,3626,3627,3628,3629,3630,3631,3632,3633,3634,3635,3636,3637,3640,3641,3642,3643,3644,3645,3646,3647,3648,3649,3650,3651,3652,3653,3654,3655,3656,3657,3658,3659,3660,3663,3664,3665,3666,3667,3668,3669,3670,3671,3672,3673,3674,3675,3676,3677,3678,3679,3680,3681,3682,3683,3684,3685,3686,3687,3688,3689,3690,3691,3692,3693,3694,3695,3696,3697,3698,3699,3700,3701,3702,3704,3705,3706,3707,3714,3715,3716,3717,3718,3719,3720]</t>
+  </si>
+  <si>
+    <t>[180,181,431,1097,1123,1434,1539,1540,1541,1559,1646,1647,1653,1654,1701,1702,1703,1767,1894,1927,1928,2040,2057,2058,2059,2148,2149,2150,2156,2157,2158,2159,2191,2192,2418,2523,2541,2557,2558,2559,2701,2702,2703,2753,2754,2767,3476,3477,3590,3591,3713,3714,3736]</t>
+  </si>
+  <si>
+    <t>[122,123,291,338,397,460,483,484,516,604,637,640,641,795,805,806,902,970,1084,1085,1109,1205,1206,1227,1233,1234,1248,1249,1250,1251,1310,1311,1312,1313,1327,1328,1355,1356,1357,1372,1373,1531,1571,1638,1639,1640,1656,1686,1712,1823,1824,1825,1826,1834,1835,1836,1837,1839,1868,1873,1945,1946,1947,1948,1956,1957,1964,1965,2063,2100,2136,2169,2170,2171,2216,2217,2220,2221,2222,2295,2296,2297,2311,2312,2313,2444,2445,2491,2510,2558,2701,2702,2730,3068,3116,3149,3150,3151,3153,3191,3192,3193,3194,3225,3226,3238,3239,3240,3298,3299,3409,3410,3411,3420,3421,3422,3699,3709]</t>
+  </si>
+  <si>
+    <t>[304,655,688,689,690,737,738,739,766,772,773,829,830,831,832,1184,1249,1250,1251,1257]</t>
+  </si>
+  <si>
+    <t>[14,15,16,17,48,49,50,51,52,53,54,55,104,105,106,107,117,124,125,126,136,137,138,227,228,229,241,242,507,508,509,765,887,943,1008,1009,1065,1066,1129,1130,1131,1187,1188,1189,1250,1251,1252,1253,1309,1310,1311,1356,1357,1358,1372,1373,1374,1375,1431,1432,1433,1434,1493,1494,1495,1496,1532,1555,1556,1557,1613,1614,1615,1639,1678,1679,1680,1681,1734,1735,1736,1737,1765,1767,1768,1778,1779,1780,1801,1802,1803,1804,1855,1856,2004,2013,2053,2054,2055,2060,2076,2077,2078,2092,2093,2138,2144,2145,2146,2177,2178,2179,2193,2194,2209,2211,2212,2213,2214,2245,2273,2300,2335,2362,2391,2453,2454,2455,2482,2483,2484,2488,2489,2494,2495,2496,2497,2503,2504,2507,2519,2520,2545,2546,2547,2548,2576,2577,2621,2622,2623,2633,2634,2639,2640,2641,2668,2669,2670,2698,2699,2726,2727,2728,2729,2734,2735,2746,2747,2748,2763,2764,2791,2858,2862,2863,2864,2865,2870,2875,2876,2914,2973,2980,2981,2982,2983,2984,2988,2993,2994,2995,2996,3082,3083,3087,3096,3104,3105,3106,3108,3109,3113,3114,3117,3118,3125,3126,3135,3139,3140,3207,3208,3209,3215,3216,3217,3218,3225,3226,3227,3234,3238,3239,3240,3248,3250,3255,3256,3257,3258,3259,3303,3328,3329,3330,3331,3332,3338,3339,3348,3349,3350,3351,3359,3360,3361,3362,3371,3372,3378,3381,3407,3424,3450,3451,3452,3453,3459,3460,3470,3471,3483,3484,3489,3500,3501,3502,3503,3567,3573,3574,3575,3584,3585,3586,3591,3592,3596,3597,3606,3607,3608,3609,3619,3620,3623,3624,3625,3694,3695,3696,3697,3710,3711,3712,3744,3745,3746,3747,3748]</t>
+  </si>
+  <si>
+    <t>[16,17,18,19,20,21,22,23,24,25,42,43,44,45,46,47,48,49,74,75,76,77,78,99,100,101,102,103,104,105,106,141,142,143,144,145,146,147,148,149,169,170,171,172,173,174,175,176,177,195,196,197,198,199,200,201,202,223,224,225,226,227,228,229,230,265,266,267,268,269,270,271,272,273,297,298,299,300,301,319,320,321,347,348,349,350,351,352,353,354,389,390,391,392,393,394,395,396,397,421,422,423,424,425,443,444,445,446,471,472,473,474,475,476,477,478,513,514,515,516,517,518,519,520,521,545,546,547,548,549,567,568,569,595,596,597,598,599,600,601,602,638,639,640,641,642,643,644,670,671,672,673,691,692,693,719,720,721,722,723,724,725,763,764,765,766,767,768,795,796,797,843,844,845,846,847,848,849,850,886,887,888,889,890,891,892,923,924,935,967,968,969,970,971,972,973,1011,1012,1013,1014,1015,1016,1017,1091,1092,1093,1094,1095,1137,1138,1139,1140,1141,1215,1216,1217,1218,1262,1263,1264,1265,1339,1340,1341,1342,1376,1377,1386,1387,1388,1389,1462,1463,1464,1465,1474,1510,1511,1512,1513,1586,1587,1588,1589,1634,1635,1636,1637,1661,1674,1675,1683,1684,1685,1709,1710,1711,1712,1713,1759,1760,1761,1762,1787,1788,1789,1795,1796,1797,1798,1799,1800,1833,1834,1835,1836,1861,1883,1884,1885,1886,1919,1920,1921,1922,1923,1924,1956,1957,1958,1959,1960,2008,2009,2010,2011,2044,2045,2079,2080,2081,2082,2133,2134,2135,2136,2141,2195,2196,2197,2204,2205,2206,2223,2240,2258,2259,2329,2330,2355,2356,2357,2382,2814,2890,2924,2925,2936,2937,3014,3015,3016,3026,3027,3028,3047,3059,3060,3061,3138,3139,3140,3141,3162,3163,3164,3165,3183,3184,3185,3241,3242,3243,3244,3245,3262,3263,3264,3265,3307,3308,3323,3324,3325,3326,3370,3371,3372,3373,3387,3388,3389,3431,3446,3447,3448,3449,3450,3452,3453,3454,3489,3490,3491,3492,3494,3495,3496,3497,3498,3512,3513,3569,3570,3571,3572,3575,3576,3577,3618,3619,3620,3621,3622,3637,3694,3695,3696,3697,3698,3740,3743,3744]</t>
+  </si>
+  <si>
+    <t>[115,133,196,197,198,280,298,321,322,340,422,445,446,474,546,557,558,603,604,635,636,639,640,673,727,733,734,753,754,755,756,757,760,763,778,779,787,788,789,797,847,848,849,855,856,886,887,888,898,913,921,972,973,1010,1098,1126,1127,1159,1160,1161,1181,1207,1222,1243,1281,1298,1302,1382,1424,1470,1474,1477,1481,1484,1485,1488,1489,1490,1491,1494,1495,1498,1499,1515,1599,1600,1601,1621,1622,1623,1624,1625,1723,1724,1725,1726,1807,1808,1809,1810,1854,1872,1908,1909,1935,1936,2031,2032,2059,2060,2081,2090,2104,2134,2135,2136,2199,2200,2201,2202,2203,2204,2205,2233,2234,2258,2259,2260,2262,2263,2264,2265,2323,2324,2325,2326,2328,2329,2340,2341,2354,2355,2356,2357,2386,2387,2388,2389,2430,2447,2448,2449,2450,2469,2479,2485,2517,2520,2521,2529,2561,2562,2646,2709,2710,2746,2747,2810,2837,2838,2866,2867,2873,2932,2933,2934,3018,3019,3020,3056,3081,3082,3118,3154,3155,3156,3167,3168,3169,3174,3205,3206,3223,3243,3244,3245,3262,3263,3327,3330,3369,3390,3435,3436,3447,3448,3449,3494,3495,3496,3507,3508,3523,3524,3525,3571,3572,3573,3574,3618,3619,3620,3694,3695,3696,3697,3713,3714,3717,3718,3721,3742,3743,3744]</t>
+  </si>
+  <si>
+    <t>[34,37,42,45,50,51,57,60,61,62,63,66,73,79,170,171,172,173,175,176,195,199,200,231,294,295,296,297,323,324,354,355,356,420,426,427,428,429,433,434,435,436,437,447,478,494,513,544,549,554,555,556,557,563,571,572,573,579,580,585,586,625,648,649,666,667,668,675,686,695,696,697,742,782,783,790,791,792,800,801,811,814,819,820,821,822,845,901,902,906,907,915,916,917,924,925,926,927,928,929,930,931,932,933,934,952,955,956,959,960,1024,1029,1036,1037,1071,1083,1084,1085,1154,1155,1156,1157,1187,1194,1200,1286,1287,1291,1292,1298,1301,1302,1303,1304,1305,1306,1422,1423,1429,1430,1451,1452,1453,1473,1502,1503,1545,1546,1547,1550,1551,1552,1553,1557,1670,1671,1672,1673,1674,1675,1792,1793,1800,1801,1803,1804,1805,1806,1907,1914,1915,1918,1919,1922,1923,1924,1925,1929,1930,1935,1941,2019,2020,2037,2038,2039,2040,2041,2161,2294,2295,2296,2297,2298,2309,2310,2355,2405,2409,2410,2411,2412,2414,2422,2423,2424,2425,2426,2467,2468,2469,2470,2530,2531,2541,2553,2677,2694,2791,2792,2793,2794,2883,2902,2910,2911,2912,2913,2915,2922,2923,2924,2925,3028,3029,3135,3136,3137,3167,3171,3172,3173,3174,3189,3273,3274,3275,3276,3277,3278,3279,3280,3291,3292,3293,3344,3402,3403,3404,3415,3416,3417,3420,3467,3474,3475,3527,3528,3529,3530,3531,3532,3534,3535,3536,3537,3538,3595,3596,3646,3654,3655,3656,3657,3669,3670,3690,3769]</t>
+  </si>
+  <si>
+    <t>[979,1002,1003,1082,1106,1150,1151,1152,1203,1204,1205,1206,1274,1275,1276,1277]</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,6,7,8,9,10,103,104,105,106,107,115,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,133,134,140,141,142,143,144,229,230,231,237,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,258,259,264,265,353,354,355,356,360,365,366,367,368,369,370,371,372,373,374,375,376,377,378,379,380,381,382,383,384,388,389,390,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,505,506,507,508,509,510,511,519,604,605,606,607,608,613,614,615,616,617,618,619,620,621,622,623,624,625,626,632,633,634,635,636,637,638,639,648,649,712,713,714,715,728,729,730,731,732,737,738,739,740,741,742,743,744,745,746,747,748,749,750,760,761,762,763,834,835,845,846,847,848,849,850,851,861,862,863,864,865,866,867,868,869,870,871,872,873,874,875,884,885,886,887,890,891,892,893,894,973,974,985,986,987,988,989,990,991,992,993,994,995,996,1009,1010,1011,1112,1113,1114,1115,1116,1117,1118,1119,1210,1218,1237,1238,1239,1240,1241,1260,1344,1363,1480,1620,1621,1622,1623,1725,1726,1727,1728,1744,1750,1752,1753,1754,1755,1756,1823,1837,1838,1839,1840,1841,1842,1843,1844,1852,1864,1865,1866,1867,1957,1958,1959,1960,1973,1974,1975,1976,1991,1992,1993,1994,1995,2008,2009,2010,2011,2100,2101,2102,2103,2104,2112,2113,2114,2115,2123,2124,2225,2226,2227,2228,2236,2237,2238,2239,2348,2349,2350,2351,2353,2356,2357,2358,2359,2367,2374,2466,2467,2468,2472,2477,2478,2479,2480,2481,2482,2483,2484,2487,2488,2492,2493,2494,2601,2602,2603,2612,2613,2614,2717,2718,2719,2720,2736,2737,2738,2845,2846,2856,2857,2858,2859,2884,3090,3091,3092,3093,3101,3102,3103,3105,3106,3108,3200,3218,3240,3241,3242,3243,3244,3245,3246,3247,3248,3249,3250,3251,3252,3253,3254,3315,3316,3317,3318,3319,3320,3321,3322,3323,3324,3325,3326,3327,3328,3329,3330,3331,3332,3363,3364,3365,3366,3367,3368,3369,3370,3371,3372,3373,3374,3375,3376,3377,3378,3379,3380,3381,3439,3440,3441,3442,3443,3444,3445,3446,3447,3448,3449,3450,3451,3452,3453,3454,3455,3456,3457,3458,3459,3460,3484,3485,3486,3487,3488,3489,3490,3491,3492,3493,3494,3495,3496,3497,3498,3499,3500,3501,3502,3503,3573,3574,3575,3576,3577,3578,3579,3580,3581,3582,3583,3584,3608,3609,3610,3612,3613,3614,3615,3616,3703,3704,3705,3706,3707,3708,3732,3733,3734,3735,3736,3737,3738]</t>
+  </si>
+  <si>
+    <t>[159,160,811,812,895,967,1359,1360,1362,1446,1447,1448,1449,1477,1478,1479,1483,1572,1573,1574,1575,1576,1595,1596,1597,1598,1696,1697,1698,1699,1700,1701,1702,1713,1714,1715,1716,1717,1758,1759,1822,1823,1824,1825,1826,1827,1830,1831,1832,1833,1834,1947,1948,1952,2072,2073,2103,2104,2105,2165,2166,2250,2251,2265,2675]</t>
+  </si>
+  <si>
+    <t>[93,150,216,217,218,219,269,270,525,526,527,528,533,534,535,562,563,564,565,631,671,740,760,854,878,944,1078,1167,1168,1199,1200,1201,1202,1295,1296,1297,1298,1299,1300,1339,1340,1371,1383,1384,1385,1386,1387,1388,1389,1390,1416,1417,1418,1419,1430,1431,1432,1433,1434,1435,1436,1437,1451,1489,1490,1491,1492,1493,1494,1495,1496,1500,1517,1518,1519,1530,1531,1532,1533,1534,1535,1536,1537,1541,1542,1543,1544,1550,1551,1552,1553,1560,1611,1612,1613,1614,1615,1616,1617,1618,1629,1630,1631,1632,1633,1634,1635,1636,1637,1638,1639,1640,1641,1654,1655,1656,1657,1658,1663,1678,1679,1680,1889,1890,2001,2002,2003,2091,2097,2098,2114,2127,2128,2140,2141,2142,2182,2209,2248,2249,2250,2251,2424,2425,2426,2427,2453,2454,2455,2481,2482,2546,2547,2548,2580,2670,2671,2697,2698,2745,2864,2865,2866,2867,2868,2869,2945,2979,2980,2989,2990,3033,3168,3316,3317,3621,3622,3623,3709,3710,3711]</t>
+  </si>
+  <si>
+    <t>[7,8,9,10,15,20,21,22,23,24,25,98,99,100,101,102,103,104,113,114,115,116,122,123,124,125,126,127,132,144,145,146,147,148,149,171,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,223,224,225,226,227,245,251,268,269,288,289,290,300,301,302,303,304,305,306,307,319,320,330,331,332,426,428,429,430,431,432,433,434,435,436,437,438,439,440,465,513,514,515,524,525,526,527,534,543,555,556,557,558,559,589,590,591,601,602,603,629,630,637,638,668,695,696,701,702,703,748,749,785,786,829,837,838,839,864,904,905,906,927,928,933,934,935,936,947,966,967,981,988,1048,1049,1087,1091,1092,1124,1125,1155,1163,1217,1229,1230,1231,1232,1247,1260,1261,1262,1263,1268,1269,1270,1280,1281,1286,1287,1296,1329,1341,1342,1343,1344,1384,1385,1386,1387,1396,1398,1399,1402,1403,1432,1444,1448,1449,1450,1465,1466,1467,1468,1526,1527,1601,1602,1603,1620,1621,1622,1635,1636,1637,1638,1696,1711,1780,1791,1821,1822,1823,1892,1921,1933,1975,1976,2032,2033,2042,2043,2048,2049,2050,2051,2058,2059,2060,2079,2099,2110,2111,2135,2165,2166,2225,2226,2227,2228,2229,2230,2231,2232,2233,2234,2235,2236,2237,2238,2239,2264,2317,2318,2319,2329,2330,2348,2349,2350,2351,2352,2353,2354,2355,2356,2357,2358,2359,2360,2361,2362,2363,2364,2372,2373,2374,2375,2380,2381,2422,2423,2471,2472,2473,2474,2475,2476,2477,2478,2479,2480,2481,2482,2483,2484,2485,2486,2487,2488,2489,2508,2536,2537,2538,2573,2574,2593,2594,2595,2596,2597,2598,2599,2600,2601,2602,2603,2604,2605,2606,2607,2608,2609,2610,2611,2612,2613,2614,2716,2717,2718,2719,2720,2721,2722,2723,2724,2725,2726,2727,2728,2729,2730,2731,2732,2733,2734,2735,2736,2737,2738,2793,2794,2820,2841,2842,2843,2844,2845,2846,2847,2848,2849,2850,2851,2852,2853,2854,2855,2856,2857,2858,2859,2860,2861,2862,2952,2957,2958,2959,2967,2968,2969,2970,2971,2972,2973,2974,2975,2976,2977,2978,2979,2980,2981,2982,2983,2999,3047,3049,3050,3069,3070,3071,3093,3094,3095,3096,3097,3098,3099,3100,3101,3102,3103,3104,3105,3106,3107,3127,3128,3129,3130,3139,3152,3170,3171,3195,3217,3218,3219,3220,3221,3222,3223,3224,3225,3226,3227,3228,3229,3241,3242,3243,3257,3258,3263,3267,3303,3304,3305,3314,3315,3329,3330,3344,3345,3346,3347,3348,3349,3350,3351,3360,3361,3391,3530,3531,3537,3575,3576,3581,3604,3608,3609,3610,3611,3632,3633,3634,3635,3655,3665,3666,3678,3679,3680,3681,3682,3683,3684,3687,3688,3700,3711,3712,3725,3726,3727,3756,3757,3758,3759,3760,3761,3762,3772,3773,3801,3802,3803,3805,3806,3807,3808,3837,3838,3839,3840]</t>
+  </si>
+  <si>
+    <t>[94,95,96,97,122,151,152,218,626,639,640,641,722,743,744,867,1054,1135,1136,1429,1430,1614,1615,1616,1714,1831,1832,1838,1870,1871,1872,1881,1882,1888,1889,1954,1961,1962,2356,2357,2519,2520,2563,2564,2645,2679,2742,2777,2806,2897,3129,3219,3220,3221,3227,3228,3303,3392,3427,3515,3516,3517,3551,3639,3674,3675,3676]</t>
+  </si>
+  <si>
+    <t>Not sure about overlay map - bkg does not match properly</t>
+  </si>
+  <si>
+    <t>[10,11,12,17,18,19,20,21,22,23,24,38,39,40,41,42,43,44,85,86,87,101,102,103,112,113,114,115,126,127,128,133,134,135,138,139,159,160,214,217,232,233,234,263,418,419,434,435,440,447,528,545,546,547,548,565,566,567,673,847,886,887,888,893,894,895,921,922,964,965,966,1249,1250,1336,1337,1338,1339,1389,1390,1391,1392,1460,1501,1502,1503,1596,1597,1598,1637,1638,1719,1732,1733,1734,1735,1741,1742,1743,1744,1745,1746,1747,1748,1749,1750,1751,1752,1753,1754,1755,1756,1757,1758,1759,1836,2062,2219,2220,2241,2242,2243,2244,2294,2295,2344,2387,2388,2428,2645,2646,2679,2972,2973,2974,2977,2978,2979,3096,3097,3103,3104,3166,3167,3228,3281,3282,3283,3331,3342,3343,3353,3354,3357,3365,3366,3462,3463,3464,3465,3466,3478,3479,3480,3481,3482,3505,3506,3514,3515,3552,3584,3585,3586,3587,3605,3606,3607,3608,3651,3652,3708,3709,3731,3732,3830,3831,3832,3833]</t>
+  </si>
+  <si>
+    <t>[2134,2135,2136,2137]</t>
+  </si>
+  <si>
+    <t>[29,30,31,32,89,90,91,556,575,576,678,698,922,1069,1070,1071,1072,1128,1745,1817,1818,1819,1820,1937,1938,1965,1966,1967,1968,2196,2496,2497,2517,2590,2753,2754,2755,2756,2854,2855,2856,2857,2858,2859,2872,2873,2874,2875,2876,2877,2878,2879,2880,2974,2975,2976,2977,2978,2979,2980,2981,2982,2983,2984,2993,2994,2995,2996,3001,3002,3003,3097,3098,3099,3104,3105,3106,3115,3116,3117,3123,3303,3540,3590,3697]</t>
+  </si>
+  <si>
+    <t>[248,249,250,251,252,300,355,356,357,358,359,360,361,370,371,372,373,374,375,376,377,422,476,477,478,479,480,481,482,483,484,491,492,493,494,495,496,497,498,499,598,599,600,601,602,603,604,605,606,614,615,616,617,618,619,620,723,724,725,726,727,737,738,739,740,802,803,1484,1882,1899,1900,2174,2187,2774,2775,2776,2777,2835,2836,2837,2898,2899,3090,3425,3426,3427,3699,3700]</t>
+  </si>
+  <si>
+    <t>[610,611,612,613,614,728,729,730,731,732,733,734,735,736,849,1403,2160,2161,2162,2169,2211,2221,2222,2223,2230,2231,2232,2460,2926,2927,2928,2929,2930,2931,3046,3047,3048,3049,3050,3051,3052,3053,3054,3168,3169,3170,3171,3172,3173,3174,3175,3176,3290,3291,3292,3293,3294,3295,3296,3297,3298,3388,3389,3400,3401,3402,3403,3404,3413,3414,3415,3428,3429,3430,3431]</t>
+  </si>
+  <si>
+    <t>[287]</t>
+  </si>
+  <si>
+    <t>[200,201,202,203,285,286,287,288,1346,1993,2030,2031,2032,2115,2116,2117,2118]</t>
+  </si>
+  <si>
+    <t>[200,201]</t>
+  </si>
+  <si>
+    <t>Bkg does not match</t>
+  </si>
+  <si>
+    <t>[531,807,808,828,924,925,926,927,929,933,934,935,936,1046,1047,1048,1049,1060,1061,1062,1113,1114,1168,1169,1170,1171,1185,1186,1187,1277,1292,1293,1294,1309,1310,1311,1312,1415,1416,1417,1418,1436,1437,1536,1611,1643,1939,1940,2006,2080,2275,2276,2277,2278,2297,2298,2313,2412,2413,2414,2636,2637,2638,2696,3035,3085,3086,3112,3113,3114,3408,3409,3701,3702,3703,3736,3737,3738]</t>
+  </si>
+  <si>
+    <t>[207,281,282,321,322,716,721,740,741,742,755,1129,1355,1356,1357,1401,1449,1450,1451,1577,1578,1593,1701,1702,1703,1712,1713,1714,1715,1735,1736,1737,1738,1739,1805,1806,1822,1837,1942,1943,1944,1960,1961,1962,2064,2065,2066,2082,2083,2084,2153,2185,2186,2187,2188,2204,2205,2206,2207,2307,2308,2309,2310,2326,2327,2328,2429,2430,2431,2432,2447,2448,2449,2450,2538,2551,2552,2553,2554,2569,2570,2571,2572,2581,2584,2585,2674,2675,2676,2691,2692,2798,2813,2833,2834,2835,2836,2837,2920,2921,2934,2935,3002,3043,3056,3057,3164,3165,3178,3179,3247,3248,3249,3254,3286,3287,3288,3289,3298,3299,3300,3301,3302,3327,3328,3338,3339,3370,3371,3372,3405,3406,3407,3408,3409,3410,3411,3412,3417,3418,3419,3420,3421,3422,3423,3424,3425,3426,3494,3495,3535,3536,3537,3538,3539,3540,3581,3616,3649,3658,3659,3660,3667,3668,3669,3670,3671,3702]</t>
+  </si>
+  <si>
+    <t>[169,170,171,172,173,196,197,198,202,218,270,283,284,285,286,287,288,289,297,308,321,431,520,521,549,605,610,731,1383,1384,1405,1406,1417,1418,1419,1420,1421,1422,1425,1426,1500,1501,1510,1511,1512,1513,1518,1519,1520,1521,1522,1523,1524,1525,1526,1527,1528,1529,1530,1531,1532,1533,1534,1535,1536,1549,1550,1551,1552,2079,2092,2093,2143,2144,2246,2247,2248,2317,2320,2363,2395,2445,2483,2484,2517,2518,2549,2550,2573,2574,2575,2605,2606,2639,2640,2641,2726,2727,2728,2764,2839,2846,2847,2852,2853,2854,2855,2867,2868,2869,2870,2871,2872,2873,2874,2875,2876,2877,2889,2890,2895,2954,2955,2956,2957,2958,2959,2960,2985,2986,2987,2988,3018,3024,3073,3074,3075,3150,3284,3387,3388,3425,3443,3444,3529,3530,3544,3545,3546,3618,3652,3653,3654,3665,3666]</t>
+  </si>
+  <si>
+    <t>[3293,3294,3295,3296,3419]</t>
+  </si>
+  <si>
+    <t>[26,27,73,74,121,178,179,180,181,207,263,300,301,308,423,460,461,514,515,520,521,533,541,542,565,576,577,639,653,654,655,687,688,689,744,745,769,775,776,777,824,935,936,937,938,947,948,955,956,982,983,984,1002,1003,1004,1005,1017,1022,1033,1049,1050,1051,1053,1069,1070,1071,1072,1085,1086,1110,1124,1125,1126,1142,1193,1194,1284,1316,1330,1331,1332,1353,1368,1369,1374,1414,1430,1438,1447,1448,1449,1450,1478,1479,1480,1503,1536,1545,1546,1547,1573,1574,1575,1596,1597,1624,1625,1626,1627,1665,1666,1667,1668,1697,1698,1709,1710,1749,1762,1763,1764,1769,1770,1771,1773,1774,1775,1794,1795,1796,1864,1865,1866,1915,1916,1935,1936,1974,1975,1976,1999,2000,2010,2011,2012,2013,2014,2030,2031,2032,2049,2050,2051,2052,2058,2096,2097,2098,2099,2106,2107,2108,2116,2117,2118,2160,2161,2162,2163,2164,2171,2172,2173,2227,2228,2230,2231,2232,2277,2281,2282,2283,2284,2340,2341,2342,2351,2352,2353,2359,2372,2373,2383,2384,2385,2395,2396,2397,2398,2403,2404,2405,2406,2413,2414,2456,2457,2466,2472,2473,2474,2475,2476,2477,2479,2480,2481,2482,2483,2484,2485,2494,2495,2517,2518,2519,2520,2521,2522,2523,2524,2525,2544,2545,2551,2552,2596,2600,2601,2602,2603,2604,2605,2606,2607,2622,2623,2624,2625,2639,2642,2643,2644,2645,2646,2650,2724,2725,2726,2727,2728,2729,2761,2762,2763,2764,2765,2766,2767,2768,2787,2788,2823,2830,2831,2844,2845,2846,2847,2848,2849,2850,2851,2883,2884,2885,2912,2913,2914,2973,3008,3016,3082,3083,3084,3243,3248,3255,3256,3332,3340,3341,3368,3369,3388,3407,3433,3434,3435,3445,3459,3460,3492,3493,3514,3515,3520,3547,3555,3557,3609,3629,3630,3650,3666,3667,3668,3710,3721,3722,3723,3724,3768,3773,3774]</t>
+  </si>
+  <si>
+    <t>[0,1,2,454,489,497,498,503,504,788,789,822,823,824,860,876,877,910,911,912,913,1175,1179,1180,1502,1598,1599,1600,1993,2098,2099,2100,2101,2113,2114,2225,2226,2227,2236,2237,2238,2239,2240,2346,2347,2348,2349,2350,2351,2361,2362,2363,2364,2365,2469,2470,2471,2472,2473,2487,2488,2489,2594,2674,2675,2782,2798,2799,2903,3003,3004,3005,3006,3070,3071,3072,3073,3382,3437]</t>
+  </si>
+  <si>
+    <t>[1013,1014,1060]</t>
+  </si>
+  <si>
+    <t>[22,23,24,29,99,100,101,102,146,147,148,149,223,224,225,226,270,271,272,273,347,348,349,396,656,657,703,707,708,709,784,1026,1027,1769,1770,1771,1807,1808,1825,1826,1910,1911,2156,2246,2247,2248,2249,2339,2340,2341,2342,2370,2371,2372,2373,2985,3020,3145]</t>
+  </si>
+  <si>
+    <t>[27,92,93,94,95,150,151,152,1152,1508,1509,1510,1536,1537,1538,1539,1540,1633,1634,1635,1658,1659,1660,1661,1754,1755,1756,1757,1780,1781,1782,1783,1822,1839,1877,1878,1879,1880,1902,1903,2325,2326,2430,2431,2432,2747,2864,2865,2866,2867,2868,2869,2986,2987,2988,2989,2990,2991,3109,3110,3199,3264,3265]</t>
+  </si>
+  <si>
+    <t>[793,913,917,918,1032,1033,1050,1051,1147,1148,1149,1150,1151,1152,1153,1154,1155,1162,1277,1278,1282,1402,2974,3608,3609,3610,3611,3612,3613,3713,3714,3715,3724,3725]</t>
+  </si>
+  <si>
+    <t>[68,105,106,136,137,138,175,190,231,232,233,234,249,250,251,252,253,419,427,434,542,543,544,545,546,552,604,1103,1104,1214,1219,1220,1221,1223,1224,1225,1281,1337,1338,1339,1340,1341,1344,1345,1401,1402,1405,1460,1461,1462,1466,1467,1468,1581,1582,1583,1589,1590,1643,1651,1702,1763,1764,1774,1775,1835,1884,1897,1898,1951,1952,2005,2019,2073,2074,2128,2129,2139,2195,2197,2258,2259,2314,2315,2316,2320,2321,2322,2445,2567,2678,2800,2933,3044,3055,3166,3299,3421,3531,3532,3544,3545,3546,3547,3551,3552,3553,3643,3644,3647,3648,3671,3677,3686,3761,3762,3763,3764,3770]</t>
+  </si>
+  <si>
+    <t>[3,4,32,33,34,35,40,83,84,89,90,105,120,127,164,205,206,207,208,209,210,229,251,265,266,284,285,286,287,291,333,334,335,345,346,353,354,389,390,391,392,393,394,395,408,409,410,411,457,458,459,460,476,477,514,515,520,521,532,533,534,535,581,582,583,584,593,594,595,601,617,635,636,637,638,639,656,657,658,659,676,687,688,705,706,707,708,727,728,759,760,780,781,782,783,800,806,807,829,830,831,832,852,883,903,934,935,964,972,1012,1013,1048,1081,1082,1094,1095,1096,1136,1137,1183,1184,1217,1218,1219,1220,1236,1244,1260,1261,1262,1263,1296,1306,1307,1308,1341,1342,1343,1344,1358,1359,1360,1369,1370,1385,1386,1387,1388,1411,1420,1421,1431,1432,1463,1464,1465,1466,1473,1474,1500,1501,1502,1509,1510,1511,1544,1587,1588,1589,1590,1591,1597,1598,1599,1624,1625,1626,1633,1634,1635,1636,1677,1693,1694,1710,1711,1712,1726,1727,1740,1741,1759,1760,1761,1762,1776,1777,1778,1779,1795,1817,1818,1819,1820,1833,1834,1835,1836,1853,1854,1855,1883,1884,1885,1886,1900,1901,1902,1903,1941,1942,1943,1944,1958,1959,1960,1961,1962,1964,1965,2000,2001,2002,2003,2004,2005,2006,2007,2008,2024,2025,2026,2027,2065,2066,2067,2085,2089,2090,2091,2109,2110,2124,2125,2130,2131,2132,2133,2149,2150,2151,2189,2190,2198,2204,2205,2206,2207,2215,2216,2229,2230,2231,2232,2233,2234,2235,2247,2248,2264,2265,2266,2273,2274,2275,2313,2322,2323,2328,2340,2353,2354,2355,2356,2357,2358,2359,2371,2384,2387,2388,2389,2390,2447,2476,2477,2478,2479,2480,2481,2482,2483,2484,2512,2513,2514,2570,2571,2572,2587,2588,2597,2598,2599,2600,2608,2609,2610,2611,2619,2620,2636,2690,2691,2712,2721,2722,2723,2724,2733,2734,2735,2743,2759,2764,2815,2816,2836,2837,2838,2839,2840,2845,2846,2857,2858,2859,2864,2865,2866,2888,2889,2890,2911,2912,2913,2933,2934,2938,2939,2940,2962,2963,2964,2969,2970,2971,2980,2981,2982,2983,2984,2985,2986,2987,3011,3012,3061,3062,3063,3064,3091,3092,3093,3094,3095,3104,3105,3106,3107,3108,3137,3138,3139,3185,3197,3198,3199,3200,3216,3217,3218,3219,3228,3229,3230,3231,3248,3249,3250,3275,3322,3323,3324,3341,3342,3343,3348,3352,3353,3354,3355,3372,3373,3447,3448,3463,3464,3471,3472,3478,3479,3480,3496,3497,3498,3503,3536,3565,3566,3567,3568,3569,3570,3571,3572,3585,3586,3587,3588,3589,3590,3595,3602,3603,3604,3605,3606,3620,3621,3622,3623,3624,3625,3626,3627,3688,3689,3690,3691,3692,3709,3710,3711,3712,3713,3726,3727,3728,3729,3730,3731,3748,3749,3750,3751]</t>
+  </si>
+  <si>
+    <t>[29,30,101,150,151,152,184,185,186,203,336,337,347,348,349,406,407,408,409,418,419,420,421,434,502,503,504,505,506,586,587,588,589,590,653,669,670,671,672,673,674,691,752,753,754,755,756,757,758,759,812,813,814,815,835,836,837,838,839,840,841,842,843,844,845,865,866,919,920,921,922,923,924,925,926,927,928,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014,1058,1070,1086,1087,1088,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1124,1125,1126,1170,1171,1172,1173,1174,1175,1176,1177,1178,1179,1257,1258,1259,1260,1261,1262,1304,1342,1343,1344,1345,1346,1426,1427,1428,1429,1430,1488,1489,1490,1491,1492,1493,1510,1511,1512,1513,1514,1526,1527,1528,1529,1530,1531,1532,1533,1534,1535,1536,1537,1574,1575,1576,1577,1578,1579,1580,1581,1582,1594,1595,1596,1607,1608,1609,1610,1611,1612,1613,1614,1650,1651,1652,1653,1665,1666,1667,1668,1669,1690,1705,1706,1707]</t>
+  </si>
+  <si>
+    <t>[4,5,25,65,103,129,140,141,148,149,187,195,203,204,205,206,215,216,223,224,225,232,269,270,279,280,287,307,308,315,363,364,380,381,388,389,391,399,439,440,447,448,449,451,452,474,475,476,484,517,518,532,533,534,558,559,560,566,567,608,609,610,615,616,617,618,640,641,642,643,644,650,651,692,693,700,701,702,703,704,722,723,724,725,726,727,734,735,769,770,784,785,786,787,788,789,806,807,808,809,810,811,826,853,854,869,870,871,872,873,890,891,892,893,894,938,953,954,955,956,957,974,975,976,977,978,995,996,997,1019,1020,1037,1038,1039,1040,1041,1059,1060,1061,1062,1074,1075,1078,1079,1080,1081,1103,1104,1105,1107,1108,1109,1122,1123,1124,1130,1137,1138,1139,1140,1141,1143,1144,1145,1162,1163,1164,1165,1187,1188,1189,1206,1207,1208,1211,1212,1213,1221,1222,1223,1224,1225,1228,1229,1246,1247,1248,1249,1271,1272,1273,1274,1291,1295,1296,1297,1298,1304,1305,1306,1307,1308,1313,1330,1331,1332,1333,1355,1356,1357,1358,1379,1380,1381,1382,1383,1387,1388,1389,1390,1391,1414,1415,1416,1417,1439,1440,1441,1442,1464,1465,1466,1467,1468,1472,1473,1474,1481,1498,1499,1500,1501,1510,1511,1512,1513,1514,1523,1524,1525,1526,1543,1549,1550,1551,1556,1558,1559,1560,1563,1564,1565,1582,1583,1584,1585,1594,1595,1596,1597,1598,1607,1608,1609,1610,1627,1628,1631,1632,1633,1635,1642,1643,1644,1647,1648,1653,1666,1667,1668,1678,1679,1680,1681,1691,1692,1693,1694,1707,1715,1716,1717,1718]</t>
+  </si>
+  <si>
+    <t>[1473,1555,1634,1635,1636,1639,1640,1641,1642,1718,1719,1725,1726]</t>
+  </si>
+  <si>
+    <t>[780,781,782,783]</t>
+  </si>
+  <si>
+    <t>[15,16,17,18,38,39,40,41,62,63,64,65,66,67,68,69,70,72,73,74,94,106,107,108,109,110,111,112,129,130,150,151,184,185,206,207,208,239,240,241,262,263,264,295,296,297,318,319,320,352,353,354,426,427,428,429,467,468,469,470,527,528,534,535,536,585,589,644,645,699,700,701,754,755,756,757]</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,19,20,21,22,30,31,32,33,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,79,80,81,82,83,84,85,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169,170,171,172,173,174,175,176,177,178,179,180,181,182,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,288,289,290,291,292,293,294,322,323,324,325,326,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,378,379,380,381,382,383,384,385,386,387,388,389,390,391,392,393,394,395,396,397,398,399,400,401,402,403,404,405,433,434,435,436,437,438,439,440,441,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,505,506,507,508,509,510,511,512,513,514,515,516,517,546,547,548,549,550,551,552,553,554,555,556,557,558,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,601,602,603,604,605,606,607,608,609,610,611,612,613,614,615,616,617,618,619,620,621,622,623,624,625,626,627,628,629,658,659,660,661,662,663,664,665,666,667,668,669,670,671,672,673,674,675,676,677,678,679,680,681,682,683,684,685,686,713,714,715,716,717,718,719,720,721,722,723,724,725,726,727,728,729,730,731,732,733,734,735,736,737,738,739,740,741,742,769,770,771,772,773,774,775,776,777,778]</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,34,35,36,37,38,39,40,57,58,59,60,64,80,81,82,83,84,85,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,162,163,164,178,179,184,185,186,187,201,202,203,218,219,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,256,257,258,259,260,261,262,263,264,266,269,285,286,301,302,303,306,307,321,322,323,324,339,340,345,346,347,348,349,350,351,352,353,354,355,356,357,358,359,360,361,362,363,364,365,366,367,368,369,370,371,372,373,374,375,376,377,378,379,380,381,382,383,384,385,387,388,409,410,411,412,413,414,426,427,428,433,438,439,440,441,442,443,465,466,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,505,507,508,509,510,534,535,536,537,538,548,549,558,559,560,561,562,563,592,593,594,595,596,597,598,599,600,601,602,603,604,605,606,607,608,609,610,611,612,613,614,615,616,617,618,619,620,621,622,623,624,625,626,627,628,629,660,661,662,679,680,681,695,712,714,715,716,717,718,719,720,721,722,723,724,725,726,727,728,729,730,731,732,733,734,735,736,737,738,739,740,741,742,743,744,745,746,747,748,749,751,752,783,784,785,800,801,818,831,832,833,834,835,836,837,838,839,840,841,842,843,844,845,846,847,848,849,850,851,852,853,854,855,856,857,858,859,860,861,862,863,864,865,866,867,868,869,870,871,872,873,874,875,889,898,904,905,906,907,923,924,925,931,954,955,956,957,958,959,960,961,962,963,964,965,966,967,968,969,970,971,972,973,974,975,976,977,978,979,980,981,982,983,984,985,986,987,988,989,990,991,992,993,994,995,996,997,1027,1028,1029,1042,1043,1044,1045,1046,1052,1053,1075,1077,1078,1079,1080,1081,1082,1083,1084,1085,1086,1087,1088,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113,1114,1115,1116,1117,1118,1119,1122,1123,1124,1140,1147,1148,1149,1150,1153,1154,1155,1156,1161,1162,1163,1164,1167,1168,1169,1177,1193,1194,1195,1198,1199,1200,1201,1202,1203,1204,1205,1206,1207,1208,1209,1210,1211,1212,1213,1214,1215,1216,1217,1218,1219,1220,1221,1222,1223,1224,1225,1226,1227,1228,1229,1230,1231,1232,1233,1234,1235,1236,1237,1238,1239,1240,1241,1242,1244,1245,1246,1262,1270,1271,1272,1276,1277,1278,1282,1283,1284,1285,1289,1290,1299,1318,1319,1320,1321,1322,1323,1324,1325,1326,1327,1328,1329,1330,1331,1332,1333,1334,1335,1336,1337,1338,1339,1340,1341,1342,1343,1344,1345,1346,1347,1348,1349,1350,1351,1352,1353,1354,1355,1356,1357,1358,1359,1360,1361,1362,1363,1364,1365,1372,1373,1394,1395,1396,1402,1403,1404,1409,1410,1411,1431,1432,1433,1440,1441,1442,1443,1444,1445,1446,1447,1448,1449,1450,1451,1452,1453,1454,1455,1456,1457,1458,1459,1460,1461,1462,1463,1464,1465,1466,1467,1468,1469,1470,1471,1472,1473,1474,1475,1476,1477,1478,1479,1480,1481,1482,1483,1484,1485,1486,1487,1494,1495,1516,1517,1518,1519,1523,1524,1525,1530,1531,1532,1533,1554,1562,1563,1564,1565,1566,1567,1568,1569,1570,1571,1572,1573,1574,1575,1576,1577,1578,1579,1580,1581,1582,1583,1584,1585,1586,1587,1588,1589,1590,1591,1592,1593,1594,1595,1596,1597,1598,1599,1600,1601,1602,1603,1604,1605,1606,1607,1608,1609,1619,1624,1625,1627,1629,1630,1633,1641,1642,1643,1645,1648,1650,1659,1660,1663,1666,1667,1668,1669,1673,1674,1684,1685,1686,1687,1688,1689,1690,1691,1692,1693,1694,1695,1696,1697,1698,1699,1700,1701,1702,1703,1704,1705,1706,1707,1708,1709,1710,1711,1712,1713,1714,1715,1716,1717,1718,1719,1720,1721,1722,1723,1724,1725,1726,1727,1728,1729,1730,1731,1732,1741,1742,1743,1746,1747,1748,1749,1756,1767,1768,1769,1770,1787,1788,1789,1790,1794,1795,1804,1805,1806,1807,1808,1809,1810,1811,1812,1813,1814,1815,1816,1817,1818,1819,1820,1821,1822,1823,1824,1825,1826,1827,1828,1829,1830,1831,1832,1833,1834,1835,1836,1837,1838,1839,1840,1841,1842,1843,1844,1845,1846,1847,1848,1849,1850,1851,1852,1853,1855,1856,1857,1864,1865,1866,1867,1868,1869,1873,1874,1875,1884,1885,1891,1892,1896,1897,1906,1908,1912,1913,1914,1915,1916,1917,1924,1925,1926,1928,1929,1930,1931,1932,1933,1934,1935,1936,1937,1938,1939,1940,1941,1942,1943,1944,1945,1946,1947,1948,1949,1950,1951,1952,1953,1954,1955,1956,1957,1958,1959,1960,1961,1962,1963,1964,1965,1966,1967,1968,1969,1970,1971,1972,1973,1974,1975,1978,1979,1986,1987,1988,1989,1990,1991,1992,1995,2003,2005,2006,2007,2011,2013,2018,2019,2021,2027,2028,2029,2030,2032,2033,2034,2035,2036,2037,2038,2039,2046,2047,2050,2051,2052,2053,2054,2055,2056,2057,2058,2059,2060,2061,2062,2063,2064,2065,2066,2067,2068,2069,2070,2071,2072,2073,2074,2075,2076,2077,2078,2079,2080,2081,2082,2083,2084,2085,2086,2087,2088,2089,2090,2091,2092,2093,2094,2095,2096,2097,2098,2103,2115,2116,2120,2121,2122,2123,2124,2125,2126,2130,2139,2143,2144,2145,2146,2147,2148,2151,2153,2166,2170,2171,2172,2173,2174,2175,2176,2177,2178,2179,2180,2181,2182,2183,2184,2185,2186,2187,2188,2189,2190,2191,2192,2193,2194,2195,2196,2197,2198,2199,2200,2201,2202,2203,2204,2205,2206,2207,2208,2209,2210,2211,2212,2213,2214,2215,2216,2217,2218,2219,2220,2221,2222,2225,2226,2240,2241,2243,2244,2245,2246,2247,2248,2252,2261,2266,2268,2269,2272,2273,2287,2290,2291,2292,2293,2294,2295,2296,2297,2298,2299,2300,2301,2302,2303,2304,2305,2306,2307,2308,2309,2310,2311,2312,2313,2314,2315,2316,2317,2318,2319,2320,2321,2322,2323,2324,2325,2326,2327,2328,2329,2330,2331,2332,2333,2334,2335,2336,2337,2338,2339,2340,2341,2342,2343,2344,2365,2367,2368,2369,2370,2371,2375,2376,2382,2386,2387,2389,2392,2413,2414,2415,2416,2417,2418,2419,2420,2421,2422,2423,2424,2425,2426,2427,2428,2429,2430,2431,2432,2433,2434,2435,2436,2437,2438,2439,2440,2441,2442,2443,2444,2445,2446,2447,2448,2449,2450,2451,2452,2453,2454,2455,2456,2457,2458,2459,2460,2461,2462,2463,2464,2465,2466,2487,2492,2493,2497,2507,2508,2535,2536,2537,2538,2539,2540,2541,2542,2543,2544,2545,2546,2547,2548,2549,2550,2551,2552,2553,2554,2555,2556,2557,2558,2559,2560,2561,2562,2563,2564,2565,2568,2569,2570,2571,2572,2573,2574,2575,2576,2577,2578,2579,2580,2581,2582,2583,2584,2586,2587,2591,2592,2593,2594,2612,2613,2614,2626,2631,2632,2633,2636,2647,2650,2651,2654,2661,2662,2663,2664,2665,2666,2667,2668,2669,2670,2671,2672,2673,2674,2675,2676,2677,2680,2681,2682,2683,2684,2685,2686,2687,2688,2690,2691,2692,2693,2694,2695,2696,2697,2698,2699,2700,2701,2702,2703,2704,2705,2706,2707,2712,2713,2716,2717,2720,2731,2732,2734,2735,2736,2737,2741,2742,2751,2752,2753,2755,2756,2757,2765,2766,2767,2768,2769,2771,2772,2775,2776,2780,2781,2782,2783,2784,2785,2786,2787,2788,2789,2790,2791,2792,2793,2794,2795,2796,2797,2798,2799,2800,2801,2802,2803,2804,2805,2806,2807,2808,2809,2810,2811,2812,2813,2814,2815,2816,2817,2818,2819,2820,2821,2822,2823,2824,2825,2826,2827,2828,2829,2830,2831,2832,2840,2844,2845,2846,2849,2850,2851,2852,2854,2855,2856,2857,2858,2859,2860,2861,2862,2863,2864,2865,2866,2867,2868,2869,2870,2872,2873,2874,2875,2876,2877,2878,2879,2880,2881,2882,2883,2884,2887,2888,2889,2901,2902,2903,2904,2905,2906,2907,2908,2909,2910,2911,2912,2913,2914,2915,2916,2917,2918,2919,2920,2921,2922,2923,2924,2925,2926,2927,2928,2929,2930,2931,2932,2933,2934,2935,2936,2937,2938,2939,2940,2941,2942,2943,2944,2945,2946,2947,2948,2949,2950,2951,2952,2953,2954,2966,2967,2968,2973,2974,2975,2976,2978,2979,2980,2981,2982,2983,2984,2986,2987,2988,2989,2990,2991,2993,2994,2995,2996,2997,3001,3002,3003,3004,3009,3010,3022,3023,3024,3025,3026,3027,3028,3029,3030,3031,3032,3033,3034,3035,3036,3037,3038,3039,3040,3041,3042,3043,3044,3045,3046,3047,3048,3049,3050,3051,3052,3053,3054,3055,3056,3057,3058,3059,3060,3061,3062,3063,3064,3065,3066,3067,3068,3069,3070,3071,3072,3073,3074,3075,3077,3078,3083,3084,3085,3097,3102,3104,3116,3117,3122,3124,3125,3132,3135,3136,3137,3138,3142,3143,3144,3145,3146,3147,3148,3149,3150,3151,3152,3153,3154,3155,3156,3157,3158,3159,3160,3161,3162,3163,3164,3165,3166,3167,3168,3169,3170,3171,3172,3173,3174,3175,3176,3177,3178,3179,3180,3181,3182,3183,3184,3185,3186,3187,3188,3189,3190,3191,3192,3193,3195,3196,3197,3198,3199,3205,3206,3207,3208,3209,3210,3211,3218,3219,3221,3222,3226,3227,3232,3233,3234,3237,3238,3241,3243,3244,3245,3246,3247,3251,3252,3253,3254,3256,3257,3258,3259,3263,3266,3267,3268,3269,3270,3271,3272,3273,3274,3275,3276,3277,3278,3279,3280,3281,3282,3283,3284,3285,3286,3287,3288,3289,3290,3291,3292,3293,3294,3295,3296,3297,3298,3299,3300,3302,3303,3304,3305,3306,3307,3308,3309,3310,3311,3312,3313,3314,3315,3316,3317,3318,3319,3320,3326,3333,3338,3343,3344,3361,3364,3365,3366,3371,3375,3376,3390,3391,3392,3393,3394,3395,3396,3397,3398,3399,3400,3401,3402,3403,3404,3405,3406,3407,3408,3409,3410,3411,3412,3413,3414,3415,3416,3417,3418,3419,3420,3421,3422,3423,3424,3425,3426,3427,3428,3429,3430,3431,3432,3433,3434,3435,3436,3437,3438,3439,3440,3441,3442,3455,3456,3460,3461,3462,3465,3466,3467,3470,3471,3472,3481,3485,3486,3487,3490,3491,3492,3493,3497,3498,3503,3504,3513,3514,3515,3516,3517,3518,3519,3520,3521,3522,3523,3524,3525,3526,3527,3528,3529,3530,3531,3532,3533,3534,3535,3536,3537,3538,3539,3540,3541,3542,3543,3544,3545,3546,3547,3548,3549,3550,3551,3552,3553,3554,3555,3556,3557,3558,3559,3560,3561,3562,3563,3564,3577,3580,3585,3594,3595,3602,3603,3608,3612,3617,3633,3634,3635,3636,3637,3638,3639,3640,3641,3642,3643,3644,3645,3646,3647,3648,3649,3650,3651,3652,3653,3654,3655,3656,3657,3658,3659,3660,3661,3662,3663,3664,3665,3666,3667,3668,3669,3670,3671,3672,3673,3674,3675,3676,3677,3678,3679,3680,3681,3682,3683,3684,3685,3686,3711,3725,3730,3732,3733,3739,3740,3752,3756,3757,3758,3759,3760,3761,3762,3763,3764,3765,3766,3767,3768,3769,3770,3771,3772,3773,3774,3775,3776,3777,3778,3779,3780,3781]</t>
+  </si>
+  <si>
+    <t>[0,5,6,7,12,28,32,33,34,37,38,45,46,47,48,61,72,75,76,84,85,86,116,117,118,129,130,131,132,147,161,162,188,189,190,195,219,220,224,240,241,242,243,253,254,255,256,267,268,269,270,271,275,276,277,278,279,286,287,293,301,302,303,305,306,307,308,311,312,313,314,315,316,317,333,334,335,341,342,343,344,359,364,365,366,373,378,387,394,395,397,398,399,401,416,420,421,424,431,432,433,434,435,436,437,444,445,446,447,456,457,458,459,469,470,484,485,486,488,489,505,506,507,518,519,520,533,534,535,538,539,540,553,554,555,557,558,559,568,576,577,578,580,581,582,595,596,597,600,601,602,604,608,609,615,621,622,623,624,625,626,627,631,632,636,637,638,639,640,644,651,657,658,669,670,671,681,682,683,692,693,694,697,698,699,705,706,707,708,709,710,713,714,715,716,717,718,719,724,725,726,727,730,731,736,737,738,740,741,742,744,745,746,747,748,749,750,751,752,755,756,757,758,759,768,770,771,772,773,774,777,781,782,783,784,795,796,805,806,807,813,814,815,823,828,829,830,831,836,837,838,839,844,859,860,861,862,863,864,865,866,867,873,874,875,876,881,888,892,893,894,895,896,900,904,905,906,907,920,929,930,940,944,945,946,947,963,964,967,971,978,979,984,985,986,987,998,999,1000,1001,1002,1007,1008,1009,1010,1011,1012,1014,1015,1016,1028,1037,1038,1039,1053,1054,1055,1060,1083,1084,1090,1091,1092,1093,1094,1097,1099,1100,1101,1102,1104,1105,1106,1107,1108,1109,1110,1111,1119,1120,1121,1122,1125,1126,1127,1128,1131,1132,1133,1134,1137,1138,1139,1140,1141,1142,1150,1151,1157,1158,1159,1160,1168,1169,1170,1171,1172,1177,1178,1184,1185,1186,1187,1195,1196,1197,1198,1199,1213,1214,1215,1216,1217,1218,1219,1228,1229,1230,1231,1235,1240,1244,1245,1246,1247,1248,1249,1261,1262,1263,1264,1265,1266,1273,1274,1278,1279,1280,1281,1292,1293,1294,1301,1302,1303,1312,1313,1314,1316,1317,1318,1319,1320,1321,1322,1323,1328,1329,1330,1332,1333,1349,1350,1351,1353,1354,1355,1356,1357,1358,1359,1363,1369,1370,1371,1372,1373,1377,1391,1392,1395,1396,1397,1398,1399,1400,1412,1413,1414,1415,1416,1423,1424,1425,1426,1428,1429,1435,1436,1437,1438,1443,1453,1454,1457,1458,1459,1460,1474,1475,1478,1479,1480,1481,1482,1484,1485,1488,1489,1490,1491,1492,1495,1496,1497,1501,1502,1531,1532,1533,1537,1538,1539,1540,1546,1547,1548,1551,1560,1561,1562,1563,1564,1565,1566,1576,1577,1578,1583,1597,1598,1599,1601,1602,1603,1604,1608,1609,1610,1614,1615,1616,1619,1620,1621,1622,1623,1639,1640,1644,1645,1646,1647,1648,1659,1672,1675,1676,1679,1680,1681,1682,1683,1688,1689,1690,1724,1725,1726,1727,1728,1729,1733,1737,1738,1743,1744,1745,1746,1752,1777,1778,1781,1782,1783,1789,1790,1791,1792,1793,1794,1795,1796,1797,1798,1800,1801,1802,1803,1806,1807,1812,1813,1814,1820,1821,1822,1823,1833,1834,1856,1857,1858,1859,1861,1862,1863,1881,1882,1897,1898,1899,1900,1908,1913,1917,1918,1921,1922,1923,1924,1925,1928,1929,1930,1931,1935,1965,1966,1980,1981,1982,1984,2000,2001,2014,2015,2032,2033,2037,2038,2039,2040,2041,2042,2043,2044,2045,2048,2049,2050,2051,2054,2055,2057,2058,2071,2076,2077,2091,2092,2093,2094,2095,2099,2100,2107,2110,2116,2117,2120,2121,2138,2139,2140,2149,2150,2151,2152,2156,2157,2158,2161,2164,2165,2166,2167,2168,2171,2172,2173,2174,2175,2178,2179,2182,2183,2188,2189,2192,2199,2245,2253,2254,2255,2256,2260,2262,2263,2264,2269,2270,2271,2272,2278,2279,2285,2287,2288,2292,2293,2294,2295,2304,2308,2309,2310,2313,2317,2318,2319,2332,2333,2334,2335,2336,2337,2342,2343,2349,2350,2361,2370,2371,2372,2373,2374,2375,2376,2380,2407,2408,2412,2413,2414,2415,2416,2417,2418,2419,2420,2421,2422,2423,2428,2429,2436,2460,2461,2462,2463,2464,2475,2479,2480,2481,2482,2483,2484,2495,2511,2514,2515,2516,2523,2524,2529,2530,2535,2536,2537,2538,2539,2540,2541,2542,2543,2544,2545,2546,2547,2548,2549,2550,2551,2552,2553,2554,2555,2556,2557,2558,2572,2573,2588,2589,2600,2601,2606,2607,2608,2613,2614,2618,2619,2625,2626,2627,2628,2657,2658,2659,2660,2661,2662,2663,2664,2665,2667,2668,2669,2670,2671,2672,2673,2674,2676,2679,2700,2704,2705,2706,2707,2712,2713,2714,2737,2741,2742,2743,2744,2748,2749,2769,2778,2779,2780,2781,2782,2783,2784,2785,2786,2787,2788,2791,2792,2793,2794,2795,2796,2797,2798,2808,2809,2810,2811,2820,2821,2822,2823,2831,2832,2833,2834,2835,2836,2837,2838,2853,2854,2855,2856,2857,2858,2865,2866,2867,2868,2869,2870,2871,2872,2873,2874,2878,2879,2880,2881,2882,2908,2909,2910,2911,2912,2916,2917,2918,2919,2949,2950,2952,2953,2954,2955,2958,2959,2960,2961,2972,2973,2974,2975,2976,2977,2978,2979,2980,2991,2992,2999,3000,3002,3003,3029,3030,3042,3043,3044,3045,3046,3047,3072,3073,3075,3076,3084,3085,3086,3096,3097,3098,3099,3101,3113,3114,3115,3123,3124,3125,3126,3127,3128,3151,3152,3153,3154,3155,3156,3157,3158,3159,3160,3162,3163,3164,3165,3166,3167,3168,3172,3178,3179,3195,3196,3203,3208,3224,3225,3226,3239,3240,3243,3244,3251,3252,3259,3260,3272,3273,3274,3277,3278,3279,3280,3281,3282,3283,3284,3285,3286,3287,3288,3289,3290,3291,3296,3297,3298,3299,3312,3313,3316,3317,3318,3319,3320,3321,3322,3323,3328,3331,3332,3333,3334,3336,3344,3345,3346,3347,3349,3350,3351,3352,3353,3354,3355,3358,3359,3360,3361,3362,3363,3364,3365,3366,3367,3368,3374,3375,3376,3377,3378,3388,3397,3398,3399,3400,3404,3405,3406,3407,3408,3409,3410,3411,3412,3413,3414,3415,3416,3417,3436,3437,3438,3441,3442,3453,3454,3455,3456,3457,3458,3459,3460,3463,3467,3468,3469,3474,3475,3482,3483,3484,3485,3486,3487,3488,3489,3505,3506,3507,3508,3525,3526,3527,3528,3529,3530,3531,3532,3533,3534,3535,3536,3537,3538,3539,3560,3561,3562,3569,3570,3571,3579,3580,3581,3582,3592,3593,3594,3596,3597,3598,3599,3600,3602,3603,3617,3618,3619,3620,3627,3628,3630,3631,3632,3641,3642,3650,3651,3652,3653,3654,3655,3656,3660,3661,3662,3663,3664,3665,3666,3684,3685,3686,3689,3690,3691,3696,3697,3698,3712,3713,3716,3717,3718,3719,3720,3721,3722,3723,3724,3726,3727,3728,3733,3738,3739,3740,3744,3746,3747,3749,3750,3751,3770,3771,3772,3773,3774,3775,3776,3777,3778,3779]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,106,107,108,109,110,120,121,122,123,126,140,141,149,153,154,155,159,160,177,193,194,195,202,203,204,205,216,217,218,238,240,241,253,266,267,268,277,352,353,364,365,366,367,377,378,379,380,411,452,453,454,455,471,476,477,478,486,487,488,489,490,500,504,505,506,513,514,515,521,524,537,538,588,592,593,594,595,627,628,692,693,707,728,729,730,731,732,736,740,741,742,749,750,751,752,757,766,767,768,770,771,791,792,825,826,827,837,838,844,845,846,858,860,861,870,871,889,893,894,895,897,898,899,930,936,948,962,963,966,968,969,970,971,974,988,989,990,993,994,995,996,1009,1010,1011,1012,1013,1014,1015,1016,1017,1033,1034,1035,1040,1072,1088,1089,1090,1092,1093,1094,1095,1096,1112,1113,1114,1115,1116,1117,1118,1119,1135,1145,1206,1210,1224,1225,1226,1227,1237,1238,1250,1251,1253,1254,1255,1257,1258,1269,1270,1271,1272,1273,1274,1278,1280,1329,1330,1332,1333,1334,1335,1347,1348,1349,1350,1352,1353,1354,1360,1361,1363,1364,1368,1373,1374,1377,1378,1379,1380,1381,1389,1390,1391,1392,1396,1397,1398,1406,1407,1408,1417,1444,1445,1460,1466,1467,1468,1469,1470,1471,1476,1477,1493,1494,1495,1500,1528,1580,1581,1582,1583,1591,1599,1606,1607,1618,1620,1629,1630,1631,1632,1633,1634,1638,1639,1640,1641,1645,1646,1647,1687,1701,1702,1703,1708,1715,1716,1717,1718,1727,1735,1736,1756,1760,1774,1775,1803,1836,1837,1856,1869,1870,1879,1882,1883,1896,1942,1960,1995,2000,2001,2002,2003,2007,2008,2025,2026,2027,2066,2067,2082,2083,2108,2116,2160,2184,2185,2186,2206,2207,2231,2256,2316,2317,2348,2349,2350,2362,2363,2365,2366,2367,2386,2395,2396,2404,2432,2433,2434,2460,2472,2473,2476,2477,2478,2487,2488,2517,2525,2526,2527,2533,2534,2548,2549,2550,2551,2556,2557,2558,2559,2565,2566,2567,2569,2570,2574,2575,2596,2597,2604,2608,2611,2634,2635,2641,2642,2649,2650,2651,2657,2692,2728,2792,2793,2809,2810,2851,2852,2853,2854,2865,2866,2910,2911,2945,2946,2947,2975,2978,2979,2980,2992,3014,3032,3059,3063,3087,3096,3097,3098,3101,3102,3103,3115,3163,3167,3193,3194,3220,3221,3227,3253,3254,3296,3344,3345,3349,3350,3351,3352,3360,3364,3373,3385,3386,3387,3395,3397,3398,3402,3403,3416,3417,3421,3426,3427,3432,3433,3434,3443,3445,3446,3459,3463,3473,3500,3508,3510,3511,3556,3557,3564,3565,3566,3568,3592,3593,3594,3595,3597,3598,3604,3625,3626,3627,3632,3641,3642,3643,3688,3689,3690,3700,3701,3702,3716,3717,3721,3722,3723,3732,3755,3756,3761,3765]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6,7,8,9,10,11,12,13,14,16,17,18,19,20,21,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,60,61,62,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,98,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,134,135,136,137,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,166,167,168,169,170,171,182,183,195,196,203,204,205,206,207,208,213,214,215,216,217,218,219,220,221,222,223,229,230,231,232,233,234,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,256,257,258,259,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,280,281,282,283,284,285,290,291,300,301,302,307,308,309,318,319,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,350,351,352,353,354,359,360,361,362,363,364,365,368,369,370,371,372,373,378,379,380,381,382,383,384,385,386,387,388,389,390,391,392,393,394,395,396,397,398,399,400,401,402,403,404,408,409,410,411,412,413,417,418,419,420,421,422,423,424,425,431,432,433,434,435,436,440,441,442,443,444,445,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,479,480,484,485,486,489,490,491,495,496,500,501,502,503,504,505,506,507,508,511,512,513,514,515,516,517,518,519,520,521,522,523,527,528,529,530,531,532,533,534,535,543,544,545,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,574,578,579,580,581,582,583,584,585,586,588,589,590,591,592,593,594,595,596,597,598,599,600,601,602,603,607,608,609,610,611,612,615,616,617,618,619,620,621,622,623,624,625,626,627,628,629,630,631,632,633,638,639,640,646,647,648,649,650,651,652,653,657,658,659,660,661,662,663,664,671,672,673,674,675,677,681,682,685,686,687,688,689,690,691,692,697,698,701,702,703,704,705,709,710,711,712,713,714,715,716,717,718,719,720,721,722,723,724,725,726,727,728,729,730,731,732,733,734,735,736,737,738,739,740,741,742,743,744,745,746,747,748,749,750,751,752,753,754,755,756,757,758,759,760,761,762,763,764,765,766,771,772,773,774,775,776,777,778,779,780,781,782,783,784,785,786,787,788,789,790,791,792,793,794,795,796,797,799,800,801,802,803,804,805,806,807,808,809,810,811,812,813,814,823,824,825,826,827,828,829,830,831,832,833,834,835,836,837,838,839,840,841,842,843,844,845,846,847,848,849,850,853,854,855,856,857,858,859,861,862,863,864,865,866,867,868,869,870,871,872,873,874,875,876,877,878,879,880,881,882,883,893,894,895,896,897,898,899,900,901,902,903,904,905,906,907,908,910,911,912,913,914,915,916,917,918,919,921,922,923,925,926,927,928,929,930,931,937,941,942,943,944,946,947,948,949,950,951,952,953,954,955,956,957,958,959,960,967,968,969,970,971,972,973,974,975,976,977,978,979,980,981,982,983,984,985,986,987,988,989,990,991,992,993,994,995,996,997,998,999,1000,1001,1002,1003,1004,1005,1008,1009,1010,1018,1022,1023,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1037,1038,1039,1040,1041,1042,1043,1044,1045,1046,1047,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1063,1064,1065,1066,1067,1068,1069,1070,1075,1076,1077,1078,1079,1080,1081,1082,1083,1084,1085,1086,1087,1088,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113,1114,1118,1119,1120,1130,1131,1132,1133,1134,1135,1136,1137,1138,1139,1140,1146,1147,1148,1149,1150,1151,1152,1153,1154,1155,1156,1157,1158,1159,1160,1161,1162,1163,1164,1165,1166,1167,1168,1169,1170,1171,1172,1176,1177,1178,1179,1180,1181,1182,1183,1184,1194,1195,1196,1197,1198,1199,1200,1204,1205,1206,1207,1208,1209,1210,1211,1212,1213,1214,1215,1216,1217,1218,1219,1220,1221,1222,1223,1224,1225,1226,1227,1228,1229,1230,1231,1232,1233,1234,1235,1240,1241,1242,1243,1244,1245,1246,1247,1256,1257,1258,1259,1260,1261,1262,1263,1266,1267,1268,1269,1270,1271,1272,1273,1274,1275,1276,1277,1278,1279,1280,1281,1282,1283,1284,1285,1287,1288,1289,1290,1291,1292,1293,1294,1295,1296,1297,1298,1299,1300,1301,1302,1303,1316,1317,1318,1319,1320,1321,1322,1325,1326,1327,1328,1329,1330,1331,1332,1333,1334,1335,1336,1337,1338,1339,1340,1341,1342,1343,1344,1345,1346,1347,1348,1349,1350,1351,1352,1353,1354,1355,1356,1357,1358,1359,1360,1361,1362,1363,1364,1365,1370,1371,1381,1382,1383,1384,1385,1386,1387,1388,1389,1390,1391,1392,1393,1394,1395,1396,1397,1398,1399,1400,1401,1402,1403,1404,1405,1406,1407,1408,1411,1412,1413,1414,1415,1416,1417,1418,1419,1420,1421,1422,1423,1424,1432,1434,1435,1441,1442,1443,1444,1445,1446,1447,1448,1451,1452,1453,1454,1455,1456,1457,1458,1459,1460,1461,1462,1463,1464,1465,1466,1467,1468,1469,1470,1471,1472,1473,1474,1475,1480,1481,1482,1483,1484,1485,1486,1491,1496,1497,1504,1505,1506,1507,1508,1509,1510,1511,1512,1513,1516,1517,1518,1519,1520,1521,1522,1523,1527,1528,1529,1530,1531,1532,1533,1534,1539,1540,1541,1542,1543,1544,1545,1546,1547,1548,1554,1566,1567,1568,1569,1575,1576,1577,1578,1579,1580,1581,1582,1583,1584,1585,1586,1587,1588,1589,1590,1591,1592,1593,1594,1595,1596,1597,1598,1599,1600,1601,1602,1603,1604,1605,1609,1610,1616,1617,1623,1624,1625,1626,1627,1628,1629,1630,1631,1632,1633,1638,1639,1640,1641,1642,1643,1644,1645,1646,1647,1648,1649,1650,1651,1652,1653,1654,1655,1656,1657,1658,1659,1660,1661,1662,1663,1664,1665,1666,1667,1668,1669,1670,1671,1672,1684,1685,1686,1687,1688,1689,1690,1691,1692,1704,1705,1706,1707,1708,1709,1710,1711,1724,1725,1726,1727,1728,1729,1730,1734,1735,1743,1744,1745,1746,1747,1748,1749,1750,1751,1752,1753,1754,1755,1756,1757,1758,1759,1760,1761,1762,1763,1764,1765,1766,1767,1768,1769,1770,1771,1772,1773,1774,1775,1776,1777,1778,1779,1780,1781,1782,1783,1784,1787,1788,1789,1790,1791,1792,1793,1794,1795,1796,1797,1798,1807,1808,1809,1810,1811,1812,1813,1814,1818,1827,1828,1829,1830,1831,1832,1833,1836,1845,1846,1849,1850,1851,1852,1853,1858,1859,1860,1861,1862,1863,1864,1865,1866,1867,1868,1869,1870,1871,1875,1876,1877,1878,1879,1880,1881,1882,1883,1884,1885,1886,1887,1888,1889,1890,1891,1892,1893,1894,1895,1896,1897,1898,1899,1900,1901,1902,1903,1904,1905,1906,1907,1908,1912,1913,1914,1915,1916,1917,1918,1919,1920,1921,1922,1923,1924,1925,1928,1929,1930,1931,1932,1945,1949,1950,1951,1957,1958,1959,1966,1967,1970,1971,1972,1973,1974,1975,1976,1977,1978,1979,1980,1981,1982,1983,1984,1985,1986,1987,1988,1989,1990,1991,1992,1993,1994,1995,1996,1997,1998,1999,2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010,2011,2012,2013,2014,2015,2018,2019,2020,2021,2022,2023,2024,2025,2026,2027,2028,2029,2030,2031,2032,2033,2034,2035,2036,2037,2038,2039,2040,2041,2042,2043,2044,2045,2046,2047,2048,2049,2050,2052,2053,2054,2055,2056,2057,2058,2067,2089,2090,2091,2092,2093,2097,2098,2099,2100,2101,2102,2103,2104,2105,2106,2107,2108,2109,2110,2111,2112,2113,2114,2115,2116,2117,2118,2119,2120,2121,2122,2123,2124,2125,2126,2127,2128,2129,2130,2131,2132,2133,2134,2136,2137,2138,2139,2140,2141,2142,2143,2144,2145,2146,2147,2148,2149,2150,2151,2152,2153,2154,2155,2156,2157,2158,2159,2160,2161,2162,2163,2164,2165,2166,2167,2168,2169,2170,2171,2172,2177,2178,2179,2180,2201,2212,2213,2214,2215,2219,2220,2221,2222,2223,2224,2225,2226,2227,2228,2229,2230,2231,2232,2233,2234,2235,2236,2237,2238,2239,2240,2241,2242,2243,2248,2251,2252,2253,2254,2255,2257,2258,2259,2260,2261,2262,2263,2264,2265,2266,2270,2273,2274,2275,2276,2277,2278,2279,2280,2281,2282,2283,2284,2285,2286,2287,2288,2289,2290,2291,2292,2293,2294,2295,2296,2297,2298,2299,2300,2301,2302,2303,2304,2323,2324,2330,2331,2332,2333,2334,2335,2336,2337,2338,2339,2340,2341,2342,2343,2344,2345,2346,2347,2348,2349,2357,2358,2359,2360,2361,2362,2365,2366,2367,2368,2369,2370,2371,2372,2373,2374,2375,2376,2377,2379,2380,2381,2382,2383,2384,2385,2386,2387,2388,2389,2390,2391,2393,2394,2395,2396,2397,2398,2399,2408,2409,2410,2411,2412,2413,2414,2415,2416,2418,2419,2420,2421,2422,2423,2424,2425,2426,2427,2428,2450,2451,2452,2453,2454,2455,2456,2457,2458,2459,2463,2464,2465,2466,2467,2468,2469,2470,2471,2472,2473,2480,2481,2482,2483,2484,2485,2486,2487,2488,2489,2490,2491,2492,2493,2494,2495,2496,2497,2498,2499,2500,2503,2504,2505,2506,2507,2508,2509,2510,2511,2512,2513,2514,2515,2516,2517,2518,2519,2520,2521,2522,2531,2532,2533,2534,2535,2536,2537,2538,2543,2544,2545,2546,2547,2548,2549,2550,2551,2552,2553,2569,2570,2571,2572,2573,2576,2577,2578,2579,2580,2581,2582,2583,2584,2585,2587,2588,2589,2590,2599,2600,2601,2602,2603,2604,2605,2606,2607,2608,2609,2610,2611,2612,2613,2615,2616,2617,2618,2619,2620,2621,2622,2623,2624,2625,2626,2627,2628,2629,2630,2631,2632,2633,2634,2635,2636,2637,2638,2639,2643,2644,2645,2646,2647,2656,2657,2658,2659,2660,2661,2662,2663,2664,2665,2666,2667,2668,2669,2670,2671,2672,2673,2674,2675,2676,2695,2696,2697,2698,2699,2700,2701,2702,2703,2704,2705,2706,2707,2708,2709,2710,2711,2720,2721,2722,2723,2730,2731,2732,2733,2734,2735,2736,2737,2738,2739,2740,2741,2742,2743,2744,2745,2746,2747,2748,2749,2752,2753,2754,2755,2756,2757,2758,2759,2760,2769,2770,2771,2783,2784,2785,2786,2787,2788,2789,2790,2791,2792,2793,2794,2795,2796,2797,2801,2802,2803,2804,2805,2806,2807,2808,2809,2810,2811,2812,2813,2814,2815,2816,2817,2818,2819,2820,2821,2822,2824,2825,2826,2827,2828,2829,2834,2835,2836,2837,2840,2841,2851,2852,2853,2854,2855,2856,2857,2862,2863,2864,2865,2866,2867,2868,2869,2870,2880,2894,2895,2896,2897,2898,2899,2901,2902,2903,2904,2905,2906,2907,2908,2909,2910,2911,2912,2917,2918,2919,2920,2921,2922,2923,2924,2925,2926,2927,2928,2929,2930,2931,2932,2933,2934,2935,2936,2944,2945,2946,2947,2948,2949,2950,2951,2952,2953,2954,2955,2956,2957,2958,2959,2960,2961,2972,2973,2974,2975,2976,2981,2982,2986,2987,2988,2989,2990,2991,2992,2993,2995,2996,2997,3002,3003,3004,3005,3006,3011,3012,3014,3015,3016,3019,3020,3021,3022,3027,3028,3029,3033,3034,3043,3044,3045,3046,3047,3048,3049,3050,3051,3052,3053,3054,3055,3056,3062,3063,3064,3065,3070,3071,3072,3075,3076,3077,3078,3079,3080,3082,3083,3084,3085,3086,3087,3088,3089,3090,3091,3092,3093,3094,3095,3096,3097,3102,3103,3104,3105,3106,3107,3108,3111,3113,3114,3115,3116,3117,3118,3119,3125,3128,3129,3130,3131,3132,3133,3134,3135,3136,3137,3138,3141,3142,3143,3144,3145,3146,3147,3148,3149,3150,3151,3152,3153,3154,3155,3158,3159,3170,3171,3172,3173,3188,3189,3190,3191,3192,3193,3194,3195,3196,3197,3198,3199,3200,3201,3202,3206,3207,3208,3209,3210,3211,3212,3213,3214,3215,3216,3217,3218,3219,3220,3221,3224,3225,3226,3227,3228,3229,3230,3231,3233,3234,3235,3236,3237,3238,3239,3240,3241,3242,3243,3244,3245,3246,3247,3248,3249,3250,3251,3252,3253,3254,3255,3256,3257,3258,3259,3263,3264,3265,3266,3267,3268,3269,3270,3271,3272,3273,3274,3275,3276,3277,3278,3279,3280,3281,3282,3290,3291,3292,3293,3294,3295,3296,3297,3298,3305,3306,3307,3308,3309,3310,3311,3312,3313,3314,3316,3317,3318,3319,3320,3321,3322,3323,3324,3325,3326,3327,3328,3329,3330,3331,3332,3333,3334,3335,3336,3337,3338,3339,3340,3341,3342,3343,3344,3345,3346,3347,3348,3349,3350,3351,3352,3353,3354,3355,3356,3357,3358,3359,3360,3361,3362,3363,3364,3365,3366,3367,3368,3369,3370,3371,3372,3373,3374,3375,3376,3377,3378,3379,3380,3381,3382,3383,3384,3385,3386,3387,3388,3389,3390,3391,3392,3393,3394,3395,3396,3397,3398,3399,3400,3401,3402,3403,3404,3405,3406,3407,3413,3414,3415,3417,3418,3419,3422,3423,3430,3431,3432,3433,3434,3435,3436,3437,3438,3439,3440,3441,3442,3444,3445,3446,3447,3448,3449,3450,3451,3452,3453,3454,3455,3456,3457,3458,3459,3460,3461,3462,3463,3464,3465,3466,3467,3468,3469,3470,3471,3472,3473,3474,3475,3476,3477,3478,3479,3480,3481,3482,3483,3484,3485,3486,3487,3488,3489,3490,3491,3492,3493,3494,3495,3496,3497,3498,3499,3500,3501,3502,3503,3504,3505,3506,3507,3511,3512,3513,3514,3515,3516,3517,3518,3519,3520,3521,3522,3523,3524,3525,3533,3534,3535,3536,3537,3538,3539,3540,3541,3542,3543,3544,3546,3547,3548,3549,3550,3551,3552,3553,3554,3555,3556,3557,3558,3559,3560,3561,3562,3563,3564,3569,3570,3571,3572,3573,3574,3575,3576,3577,3578,3579,3580,3581,3582,3583,3584,3586,3587,3588,3589,3590,3591,3592,3593,3594,3595,3596,3597,3598,3599,3603,3604,3605,3606,3607,3608,3609,3610,3611,3612,3613,3614,3615,3616,3620,3621,3622,3623,3624,3625,3626,3627,3628,3633,3634,3635,3636,3637,3638,3639,3640,3641,3642,3643,3644,3645,3646,3647,3648,3649,3650,3651,3652,3653,3654,3655,3656,3657,3658,3659,3660,3661,3662,3663,3664,3665,3666,3667,3668,3669,3670,3671,3672,3673,3674,3675,3680,3681,3682,3683,3684,3685,3687,3692,3693,3694,3695,3696,3697,3698,3699,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3720,3721,3726,3727,3728,3729,3730,3731,3732,3733,3734,3735,3736,3737,3738,3743,3744,3745,3746,3747,3748,3749,3754,3755,3756,3757,3758,3759,3760,3761,3762,3764,3765,3766,3767,3768,3769,3770,3771,3772,3773,3774,3775,3776,3777,3778,3779,3780,3781]</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,21,22,23,24,25,26,27,28,29,30,51,52,53,54,55,56,57,58,59,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,104,105,106,107,108,109,110,111,112,133,134,135,136,137,138,139,140,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169,170,171,172,173,174,195,214,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,256,317,318,319,320,321,322,323,324,325,326,327,328,329,330,331,332,333,334,403,404,405,406,407,408,409,410,411,412,413,414,415,416,489,490,491,492,523,524,563,564,574,655,680,681,693,700,775,782,796,797,829,830,838,839,856,857,858,859,862,863,864,865,882,883,891,920,938,939,940,941,946,947,948,964,965,966,975,976,977,986,987,988,998,999,1017,1018,1019,1021,1030,1069,1080,1099,1100,1101,1102,1103,1110,1111,1112,1113,1146,1147,1171,1182,1183,1184,1193,1194,1195,1264,1265,1266,1430,1431,1432,1438,1439,1483,1494,1495,1496,1497,1538,1539,1540,1541,1550,1565,1574,1575,1576,1577,1621,1622,1623]</t>
+  </si>
+  <si>
+    <t>[169,170,171,193,200,201,202,293,294,295,310,324,325,326,327,328,329,382,383,384,388,389,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,429,431,432,433,434,435,436,437,438,439,440,441,442,443,444,445,446,447,448,449,450,451,452,453,479,483,484,485,486,527,528,538,539,540,541,542,543,544,545,546,547,548,549,550,551,552,553,554,555,556,557,558,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,574,575,576,587,589,590,592,593,594,623,624,625,663,664,665,666,667,668,669,670,671,672,673,674,675,676,677,678,679,680,681,682,683,684,685,686,687,688,689,690,691,692,693,694,695,696,697,698,699,700,701,713,738,739,740,748,757,765,766,774,786,787,788,789,790,791,792,793,794,795,796,797,798,799,800,801,802,803,804,805,806,807,808,809,810,811,812,813,814,815,816,817,818,819,820,821,822,823,824,825,855,856,857,910,911,912,913,914,915,916,917,918,919,920,921,922,923,924,925,926,927,928,929,930,931,932,933,934,935,936,937,938,939,940,941,942,943,944,945,946,947,948,949,1034,1035,1036,1037,1038,1039,1040,1041,1042,1043,1044,1045,1046,1047,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1061,1062,1063,1064,1065,1066,1067,1068,1069,1070,1071,1072,1103,1158,1159,1160,1161,1162,1163,1164,1165,1166,1167,1168,1169,1170,1171,1172,1173,1174,1175,1176,1177,1178,1179,1180,1181,1182,1183,1184,1185,1186,1187,1188,1189,1190,1191,1192,1193,1194,1195,1196,1197,1282,1283,1284,1285,1286,1287,1288,1289,1290,1291,1292,1293,1294,1295,1296,1297,1298,1299,1300,1301,1302,1303,1304,1305,1306,1307,1308,1309,1310,1311,1312,1313,1314,1315,1316,1317,1318,1319,1320,1321,1406,1407,1408,1409,1410,1411,1424,1425,1426,1427,1440,1441,1442,1443,1444,1445,1514,1515,1529,1530,1531,1532,1533,1534,1535,1549,1563,1564,1565,1566,1567,1568,1569,1584,1585,1586,1618,1619,1628,1653,1654,1655,1657,1658,1659,1660,1661,1662,1663,1684,1685,1686,1687,1688,1689,1690,1693,1694,1695,1715,1729,1730,1742,1756,1757,1775,1776,1777,1778,1781,1782,1783,1784,1785,1786,1787,1808,1809,1810,1811,1812,1813,1814,1815,1817,1818,1819,1820,1896,1909,1910,1911,1912,1913,1914,1915,1928,1929,1930,1931,1932,1933,2003,2017,2036,2037,2038,2039,2040,2046,2047,2048,2049,2050,2051,2052,2053,2054,2055,2065,2066,2074,2075,2096,2097,2332,2477,2481,2482,2563,2748,2832,2889,2912,2913,2914,2938,3013,3062,3076,3119,3161,3162,3204,3205,3260,3285,3298,3311,3354,3393,3394,3395,3404,3405,3424,3425,3426,3427,3465,3478,3517,3589,3602,3603,3712,3713,3720,3726]</t>
+  </si>
+  <si>
+    <t>{'2068_PHG_2-roi0_0_0_masked_intp.h5' : [1473,1555,1634,1635,1636,1639,1640,1641,1642,1718,1719,1725,1726]}</t>
+  </si>
+  <si>
+    <t>[1890, 1891, 1895, 1824, 1826, 1827, 1828, 1829, 1763, 1765, 1766, 1768, 1769, 1772, 1700, 1705, 1638, 1639, 1643, 1645, 1648, 1583, 1584, 1519, 1521, 1523, 1452, 1453, 1454, 1456, 1457, 1458, 1459]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[451, 452, 453, 454] </t>
+  </si>
+  <si>
+    <t>[1020, 1021, 1022, 1023, 1084, 1085, 1086, 1087, 1088, 1089, 1142, 1143, 1144, 1146, 1147, 1209, 1210, 1211, 1212, 1268], [1154, 1155, 1156, 1157, 1158, 1159, 1195, 1196, 1197, 1201, 1276, 1277, 1278, 1283, 1284, 1319, 1325, 1326, 1327, 1400, 1401, 1402, 1403, 1404, 1408, 1442, 1446, 1447, 1448, 1451, 1524, 1525, 1527, 1528, 1529, 1530, 1532, 1567, 1568, 1569, 1570, 1572, 1573, 1575, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1693, 1694, 1695, 1696, 1697], [3263, 3264, 3265, 3266, 3267, 3305, 3306, 3307, 3308, 3387, 3388, 3389, 3390, 3428, 3429, 3430, 3431, 3432, 3511, 3513, 3514]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1347,16 +1426,24 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF002060"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri (Body)"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1560,6 +1647,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1721,7 +1814,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1742,6 +1835,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2099,31 +2200,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
-      <selection pane="topRight" activeCell="S2" sqref="S2"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="64.5" customWidth="1"/>
+    <col min="11" max="11" width="53.33203125" customWidth="1"/>
     <col min="12" max="12" width="31.6640625" customWidth="1"/>
-    <col min="13" max="13" width="24.1640625" customWidth="1"/>
-    <col min="14" max="14" width="117.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="79.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="14" width="120.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="51.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="53.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="85.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="132.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="52.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="40.33203125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="66.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="108.6640625" customWidth="1"/>
-    <col min="29" max="29" width="71.33203125" customWidth="1"/>
+    <col min="17" max="17" width="132.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="52.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="40.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="66.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="86.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="108.6640625" customWidth="1"/>
+    <col min="28" max="28" width="71.33203125" customWidth="1"/>
+    <col min="29" max="29" width="135.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -2176,50 +2278,50 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
       </c>
       <c r="Y1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="AB1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="AC1" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="9">
@@ -2250,27 +2352,30 @@
         <v>100</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>188</v>
+      <c r="AA2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
+      <c r="B3" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C3">
         <v>42</v>
@@ -2291,24 +2396,27 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
       </c>
       <c r="M3">
         <v>100</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>131</v>
+      <c r="R3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C4">
         <v>61</v>
@@ -2332,24 +2440,33 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="B5" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C5">
         <v>62</v>
@@ -2373,21 +2490,33 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5">
         <v>100</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="B6" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C6">
         <v>61</v>
@@ -2408,21 +2537,24 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="B7" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C7">
         <v>62</v>
@@ -2443,27 +2575,30 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
         <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
       </c>
       <c r="M7">
         <v>100</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="R7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C8">
         <v>62</v>
@@ -2484,27 +2619,30 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
       </c>
       <c r="M8">
         <v>100</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="204" x14ac:dyDescent="0.2">
+      <c r="R8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="238" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
+      <c r="B9" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C9">
         <v>62</v>
@@ -2525,36 +2663,42 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
-        <v>32</v>
+      <c r="K9" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="M9">
         <v>100</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>134</v>
+        <v>206</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="187" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C10">
         <v>61</v>
@@ -2572,15 +2716,18 @@
         <v>310</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
+      <c r="B11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C11">
         <v>62</v>
@@ -2598,15 +2745,18 @@
         <v>310</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="272" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>62</v>
@@ -2627,22 +2777,25 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
       </c>
       <c r="M12">
         <v>100</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="68" x14ac:dyDescent="0.2">
@@ -2650,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>61</v>
@@ -2671,30 +2824,33 @@
         <v>24</v>
       </c>
       <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>48</v>
       </c>
       <c r="M13">
         <v>100</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>61</v>
@@ -2717,25 +2873,28 @@
       <c r="J14" t="s">
         <v>24</v>
       </c>
-      <c r="K14" t="s">
-        <v>48</v>
+      <c r="K14" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="M14">
         <v>100</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="289" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>62</v>
@@ -2758,25 +2917,28 @@
       <c r="J15" t="s">
         <v>24</v>
       </c>
-      <c r="K15" t="s">
-        <v>48</v>
+      <c r="K15" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="M15">
         <v>100</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
+      <c r="B16" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C16">
         <v>62</v>
@@ -2799,34 +2961,34 @@
       <c r="J16" t="s">
         <v>24</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M16">
         <v>100</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="O16" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
+      <c r="B17" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C17">
         <v>62</v>
@@ -2850,21 +3012,24 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="M17">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC17" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
+      <c r="B18" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C18">
         <v>62</v>
@@ -2888,21 +3053,24 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="AC18" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>60</v>
+      <c r="B19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C19">
         <v>61</v>
@@ -2926,31 +3094,33 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M19">
         <v>100</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
+      <c r="B20" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C20">
         <v>61</v>
@@ -2971,43 +3141,45 @@
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
       </c>
-      <c r="K20" t="s">
-        <v>64</v>
+      <c r="K20" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="M20">
         <v>100</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>66</v>
+      <c r="B21" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C21">
         <v>61</v>
@@ -3030,31 +3202,34 @@
       <c r="J21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" t="s">
-        <v>64</v>
+      <c r="K21" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="M21">
         <v>98</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
-        <v>69</v>
+      <c r="B22" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C22">
         <v>62</v>
@@ -3077,35 +3252,37 @@
       <c r="J22" t="s">
         <v>24</v>
       </c>
-      <c r="K22" t="s">
-        <v>32</v>
+      <c r="K22" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M22">
         <v>90</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB22" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
-        <v>71</v>
+      <c r="B23" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C23">
         <v>61</v>
@@ -3128,31 +3305,37 @@
       <c r="J23" t="s">
         <v>24</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="L23" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="M23">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="255" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="215" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
-        <v>73</v>
+      <c r="B24" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C24">
         <v>62</v>
@@ -3175,34 +3358,34 @@
       <c r="J24" t="s">
         <v>24</v>
       </c>
-      <c r="K24" t="s">
-        <v>32</v>
+      <c r="K24" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M24">
         <v>100</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
+      <c r="B25" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C25">
         <v>62</v>
@@ -3225,31 +3408,34 @@
       <c r="J25" t="s">
         <v>24</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="M25">
         <v>100</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>62</v>
@@ -3272,25 +3458,28 @@
       <c r="J26" t="s">
         <v>24</v>
       </c>
-      <c r="K26" t="s">
-        <v>48</v>
+      <c r="K26" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="M26">
         <v>100</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
-        <v>80</v>
+      <c r="B27" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C27">
         <v>61</v>
@@ -3311,24 +3500,27 @@
         <v>24</v>
       </c>
       <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
         <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>30</v>
       </c>
       <c r="M27">
         <v>100</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+      <c r="B28" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C28">
         <v>61</v>
@@ -3349,18 +3541,21 @@
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>82</v>
+      <c r="B29" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C29">
         <v>61</v>
@@ -3383,38 +3578,40 @@
       <c r="J29" t="s">
         <v>24</v>
       </c>
-      <c r="K29" t="s">
-        <v>32</v>
+      <c r="K29" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>169</v>
       </c>
       <c r="AB29" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="272" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
-        <v>83</v>
+      <c r="B30" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C30">
         <v>61</v>
@@ -3438,27 +3635,30 @@
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M30">
         <v>100</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="204" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
-        <v>85</v>
+      <c r="B31" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C31">
         <v>61</v>
@@ -3481,30 +3681,40 @@
       <c r="J31" t="s">
         <v>24</v>
       </c>
-      <c r="K31" t="s">
-        <v>154</v>
+      <c r="K31" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="M31">
         <v>100</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="S31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
-        <v>89</v>
+      <c r="B32" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C32">
         <v>62</v>
@@ -3527,34 +3737,40 @@
       <c r="J32" t="s">
         <v>24</v>
       </c>
-      <c r="K32" t="s">
-        <v>64</v>
+      <c r="K32" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="M32">
         <v>100</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>155</v>
+        <v>222</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="R32" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+      <c r="AC32" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>5</v>
       </c>
-      <c r="B33" t="s">
-        <v>92</v>
+      <c r="B33" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C33">
         <v>61</v>
@@ -3577,25 +3793,31 @@
       <c r="J33" t="s">
         <v>24</v>
       </c>
-      <c r="K33" t="s">
-        <v>32</v>
+      <c r="K33" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M33">
         <v>100</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>62</v>
@@ -3618,28 +3840,31 @@
       <c r="J34" t="s">
         <v>24</v>
       </c>
-      <c r="K34" t="s">
-        <v>48</v>
+      <c r="K34" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="M34">
         <v>100</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>61</v>
@@ -3660,24 +3885,27 @@
         <v>24</v>
       </c>
       <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
         <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>30</v>
       </c>
       <c r="M35">
         <v>100</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>61</v>
@@ -3695,15 +3923,18 @@
         <v>310</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>61</v>
@@ -3724,21 +3955,24 @@
         <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>97</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="289" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>62</v>
@@ -3759,21 +3993,24 @@
         <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>42</v>
@@ -3794,24 +4031,27 @@
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M39">
         <v>100</v>
       </c>
-      <c r="S39" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="R39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="170" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>42</v>
@@ -3832,13 +4072,16 @@
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>163</v>
+        <v>94</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -3846,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>11</v>
@@ -3867,16 +4110,19 @@
         <v>24</v>
       </c>
       <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
         <v>29</v>
-      </c>
-      <c r="L41" t="s">
-        <v>30</v>
       </c>
       <c r="M41">
         <v>100</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>164</v>
+      <c r="R41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -3884,7 +4130,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -3905,16 +4151,19 @@
         <v>24</v>
       </c>
       <c r="J42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
         <v>29</v>
-      </c>
-      <c r="L42" t="s">
-        <v>30</v>
       </c>
       <c r="M42">
         <v>100</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>165</v>
+      <c r="R42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -3922,7 +4171,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -3943,21 +4192,24 @@
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C44">
         <v>28</v>
@@ -3978,21 +4230,24 @@
         <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="204" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>28</v>
@@ -4013,13 +4268,16 @@
         <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>168</v>
+        <v>94</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -4027,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -4045,13 +4303,13 @@
         <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>169</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -4059,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>62</v>
@@ -4077,7 +4335,7 @@
         <v>310</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -4085,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>61</v>
@@ -4103,21 +4361,21 @@
         <v>310</v>
       </c>
       <c r="H48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>169</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>61</v>
@@ -4135,18 +4393,18 @@
         <v>310</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>28</v>
@@ -4164,21 +4422,21 @@
         <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L50" t="s">
-        <v>169</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>62</v>
@@ -4196,21 +4454,21 @@
         <v>305</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>169</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C52">
         <v>41</v>
@@ -4228,15 +4486,15 @@
         <v>210</v>
       </c>
       <c r="L52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>11</v>
@@ -4254,15 +4512,15 @@
         <v>55</v>
       </c>
       <c r="L53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C54">
         <v>62</v>
@@ -4280,12 +4538,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>61</v>
@@ -4303,18 +4561,18 @@
         <v>305</v>
       </c>
       <c r="L55" t="s">
-        <v>169</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C56">
         <v>41</v>
@@ -4332,18 +4590,18 @@
         <v>205</v>
       </c>
       <c r="L56" t="s">
-        <v>169</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C57">
         <v>42</v>
@@ -4361,18 +4619,18 @@
         <v>205</v>
       </c>
       <c r="L57" t="s">
-        <v>169</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C58">
         <v>42</v>
@@ -4390,18 +4648,15 @@
         <v>205</v>
       </c>
       <c r="L58" t="s">
-        <v>169</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C59">
         <v>41</v>
@@ -4419,12 +4674,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C60">
         <v>62</v>
@@ -4445,18 +4700,21 @@
         <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="153" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="153" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C61">
         <v>62</v>
@@ -4482,16 +4740,19 @@
       <c r="M61">
         <v>100</v>
       </c>
-      <c r="U61" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -4509,15 +4770,18 @@
         <v>310</v>
       </c>
       <c r="L62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C63">
         <v>61</v>
@@ -4538,24 +4802,27 @@
         <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M63">
         <v>100</v>
       </c>
-      <c r="S63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="R63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C64">
         <v>61</v>
@@ -4576,21 +4843,21 @@
         <v>24</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L64" t="s">
-        <v>100</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C65">
         <v>41</v>
@@ -4608,15 +4875,18 @@
         <v>200</v>
       </c>
       <c r="L65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C66">
         <v>62</v>
@@ -4634,7 +4904,10 @@
         <v>305</v>
       </c>
       <c r="L66" t="s">
-        <v>180</v>
+        <v>159</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
